--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="717">
   <si>
     <t>old</t>
   </si>
@@ -1298,9 +1298,6 @@
     <t>crfs-t09a1-referral_note</t>
   </si>
   <si>
-    <t>crfs-t09a1-fu</t>
-  </si>
-  <si>
     <t>crfs-t09a1-injection_types</t>
   </si>
   <si>
@@ -1319,15 +1316,6 @@
     <t>crfs-t09a2-g3_1</t>
   </si>
   <si>
-    <t>crfs-t09a2-i2_1</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-j2_1</t>
-  </si>
-  <si>
-    <t>crfs-t09a2-j2_1c</t>
-  </si>
-  <si>
     <t>SubmitterID</t>
   </si>
   <si>
@@ -1568,18 +1556,12 @@
     <t>crfs-t02b-a4_a_10a</t>
   </si>
   <si>
-    <t>crfs-t09a2-i2_1b</t>
-  </si>
-  <si>
     <t>ref_facility</t>
   </si>
   <si>
     <t>i2_1b</t>
   </si>
   <si>
-    <t>crfs-t09a2-i2_1o</t>
-  </si>
-  <si>
     <t>ref_facility_oth</t>
   </si>
   <si>
@@ -2144,9 +2126,6 @@
     <t>rx_misc_oth</t>
   </si>
   <si>
-    <t>crfs-t09a2-i2_1a1</t>
-  </si>
-  <si>
     <t>i2_1a1</t>
   </si>
   <si>
@@ -2169,6 +2148,33 @@
   </si>
   <si>
     <t>urg_referral_cg</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-i2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-i2_1a1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-i2_1b</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-i2_1o</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-fu</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-j2_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-j2_1c</t>
+  </si>
+  <si>
+    <t>crfs-t02b-a4_c_4_cpy</t>
+  </si>
+  <si>
+    <t>location_lvl1</t>
   </si>
 </sst>
 </file>
@@ -2616,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2653,7 +2659,7 @@
         <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>183</v>
@@ -2739,7 +2745,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>162</v>
@@ -2760,15 +2766,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2786,15 +2792,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2812,15 +2818,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2838,15 +2844,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2864,15 +2870,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2890,15 +2896,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2916,15 +2922,15 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2942,15 +2948,15 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2968,15 +2974,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -2994,15 +3000,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -3020,15 +3026,15 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -3046,15 +3052,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -3072,15 +3078,15 @@
         <v>1</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3098,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3181,10 +3187,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3202,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3259,10 +3265,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -3280,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3363,10 +3369,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3384,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3470,7 +3476,7 @@
         <v>323</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3675,10 +3681,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -3696,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3805,10 +3811,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3826,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4117,10 +4123,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -4138,15 +4144,15 @@
         <v>1</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -4164,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4273,10 +4279,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4294,15 +4300,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4320,15 +4326,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4346,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4403,11 +4409,11 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>440</v>
-      </c>
       <c r="C69" s="2">
         <v>0</v>
       </c>
@@ -4424,15 +4430,15 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4450,15 +4456,15 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4507,10 +4513,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4528,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4611,10 +4617,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -4632,15 +4638,15 @@
         <v>1</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -4658,15 +4664,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4683,16 +4689,14 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>451</v>
-      </c>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>502</v>
+        <v>715</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>503</v>
+        <v>716</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4710,15 +4714,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4736,15 +4740,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4762,18 +4766,18 @@
         <v>1</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
       <c r="C83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
@@ -4788,75 +4792,75 @@
         <v>1</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>571</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
       <c r="E84" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>51</v>
+      <c r="A85" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="17">
-        <v>0</v>
-      </c>
-      <c r="D86" s="17">
-        <v>0</v>
-      </c>
-      <c r="E86" s="18">
+        <v>51</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4866,15 +4870,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C87" s="17">
         <v>0</v>
@@ -4882,7 +4886,7 @@
       <c r="D87" s="17">
         <v>0</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="18">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4892,15 +4896,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" s="17">
         <v>0</v>
@@ -4908,7 +4912,7 @@
       <c r="D88" s="17">
         <v>0</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4918,15 +4922,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="17">
         <v>0</v>
@@ -4944,23 +4948,23 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0</v>
-      </c>
-      <c r="E90" s="4">
+        <v>55</v>
+      </c>
+      <c r="C90" s="17">
+        <v>0</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
+      </c>
+      <c r="E90" s="18">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4970,15 +4974,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4996,15 +5000,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -5022,15 +5026,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -5048,15 +5052,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -5074,15 +5078,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -5100,15 +5104,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -5126,15 +5130,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -5152,15 +5156,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -5178,15 +5182,15 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -5204,15 +5208,15 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -5230,15 +5234,15 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -5256,15 +5260,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5282,15 +5286,15 @@
         <v>1</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5308,15 +5312,15 @@
         <v>1</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5334,23 +5338,23 @@
         <v>1</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="17">
+        <v>70</v>
+      </c>
+      <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="2">
         <v>0</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="4">
         <v>1</v>
       </c>
       <c r="F105" s="3">
@@ -5360,15 +5364,15 @@
         <v>1</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C106" s="17">
         <v>0</v>
@@ -5376,7 +5380,7 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="18">
         <v>1</v>
       </c>
       <c r="F106" s="3">
@@ -5386,15 +5390,15 @@
         <v>1</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C107" s="17">
         <v>0</v>
@@ -5402,7 +5406,7 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="17">
         <v>1</v>
       </c>
       <c r="F107" s="3">
@@ -5412,15 +5416,15 @@
         <v>1</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C108" s="17">
         <v>0</v>
@@ -5438,15 +5442,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C109" s="17">
         <v>0</v>
@@ -5454,7 +5458,7 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="18">
         <v>1</v>
       </c>
       <c r="F109" s="3">
@@ -5464,15 +5468,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
@@ -5480,7 +5484,7 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="17">
         <v>1</v>
       </c>
       <c r="F110" s="3">
@@ -5490,15 +5494,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
@@ -5516,17 +5520,17 @@
         <v>1</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="2">
+        <v>77</v>
+      </c>
+      <c r="C112" s="17">
         <v>0</v>
       </c>
       <c r="D112" s="2">
@@ -5542,93 +5546,93 @@
         <v>1</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B114" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C113" s="2">
-        <v>0</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0</v>
-      </c>
-      <c r="E113" s="4">
-        <v>1</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1</v>
-      </c>
-      <c r="H113" s="13" t="s">
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="B114" s="14" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="2">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="17">
-        <v>1</v>
-      </c>
-      <c r="F114" s="19">
-        <v>1</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0</v>
-      </c>
-      <c r="H114" s="14" t="s">
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="17">
+        <v>1</v>
+      </c>
+      <c r="F115" s="19">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="14" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="21" t="s">
-        <v>581</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>1</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>0</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5637,50 +5641,50 @@
         <v>1</v>
       </c>
       <c r="E116" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="3">
         <v>0</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>80</v>
+      <c r="A117" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>574</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
       </c>
       <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
       </c>
       <c r="F117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>215</v>
+        <v>0</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5695,18 +5699,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5724,15 +5728,15 @@
         <v>0</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5750,15 +5754,15 @@
         <v>0</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5776,15 +5780,15 @@
         <v>0</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5802,15 +5806,15 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5828,15 +5832,15 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5854,15 +5858,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5880,15 +5884,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5906,15 +5910,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5932,15 +5936,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5958,15 +5962,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5984,15 +5988,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -6010,15 +6014,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -6036,15 +6040,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -6062,15 +6066,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -6088,15 +6092,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -6111,18 +6115,18 @@
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>98</v>
+        <v>406</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -6140,15 +6144,15 @@
         <v>1</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B136" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -6166,15 +6170,15 @@
         <v>1</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -6192,15 +6196,15 @@
         <v>1</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -6218,15 +6222,15 @@
         <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6244,15 +6248,15 @@
         <v>1</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6270,15 +6274,15 @@
         <v>1</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6296,15 +6300,15 @@
         <v>1</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6312,25 +6316,25 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="17">
-        <v>1</v>
-      </c>
-      <c r="F142" s="19">
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
         <v>1</v>
       </c>
       <c r="G142" s="3">
         <v>1</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6348,15 +6352,15 @@
         <v>1</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6374,15 +6378,15 @@
         <v>1</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6393,22 +6397,22 @@
       <c r="E145" s="17">
         <v>1</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="19">
         <v>1</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6419,22 +6423,22 @@
       <c r="E146" s="17">
         <v>1</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="17">
         <v>1</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6452,15 +6456,15 @@
         <v>1</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6478,67 +6482,67 @@
         <v>1</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="17">
+        <v>1</v>
+      </c>
+      <c r="F149" s="19">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>1</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B150" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="17">
-        <v>1</v>
-      </c>
-      <c r="F149" s="17">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>1</v>
-      </c>
-      <c r="H149" s="14" t="s">
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="17">
+        <v>1</v>
+      </c>
+      <c r="F150" s="17">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+      <c r="H150" s="14" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B150" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="17">
-        <v>1</v>
-      </c>
-      <c r="F150" s="19">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>1</v>
-      </c>
-      <c r="H150" s="26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="26" t="s">
-        <v>671</v>
+        <v>422</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>714</v>
+        <v>113</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6556,15 +6560,15 @@
         <v>1</v>
       </c>
       <c r="H151" s="26" t="s">
-        <v>672</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="26" t="s">
-        <v>423</v>
+        <v>665</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>114</v>
+        <v>707</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6579,18 +6583,18 @@
         <v>1</v>
       </c>
       <c r="G152" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>114</v>
+        <v>666</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6605,18 +6609,18 @@
         <v>1</v>
       </c>
       <c r="G153" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="26" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>713</v>
+        <v>123</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6634,15 +6638,15 @@
         <v>1</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>707</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
-        <v>514</v>
+        <v>709</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>515</v>
+        <v>706</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6660,15 +6664,15 @@
         <v>1</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>516</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
-        <v>517</v>
+        <v>710</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6686,15 +6690,15 @@
         <v>1</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="B157" s="25" t="s">
-        <v>115</v>
+      <c r="A157" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>512</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6709,18 +6713,18 @@
         <v>1</v>
       </c>
       <c r="G157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="25" t="s">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>124</v>
+        <v>712</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6738,67 +6742,67 @@
         <v>0</v>
       </c>
       <c r="H158" s="25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="25" t="s">
-        <v>433</v>
+        <v>713</v>
       </c>
       <c r="B159" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="17">
+        <v>1</v>
+      </c>
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="25" t="s">
+        <v>714</v>
+      </c>
+      <c r="B160" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="17">
-        <v>1</v>
-      </c>
-      <c r="F159" s="19">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="25" t="s">
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="17">
+        <v>1</v>
+      </c>
+      <c r="F160" s="19">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="25" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="17">
-        <v>1</v>
-      </c>
-      <c r="F160" s="19">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="14" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>425</v>
+        <v>532</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6816,15 +6820,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>271</v>
+        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6835,22 +6839,22 @@
       <c r="E162" s="17">
         <v>1</v>
       </c>
-      <c r="F162" s="17">
+      <c r="F162" s="19">
         <v>1</v>
       </c>
       <c r="G162" s="3">
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>543</v>
+        <v>425</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>539</v>
+        <v>118</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6861,22 +6865,22 @@
       <c r="E163" s="17">
         <v>1</v>
       </c>
-      <c r="F163" s="19">
+      <c r="F163" s="17">
         <v>1</v>
       </c>
       <c r="G163" s="3">
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>540</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>119</v>
+        <v>533</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6894,15 +6898,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>273</v>
+        <v>534</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>673</v>
+        <v>426</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>675</v>
+        <v>119</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6920,15 +6924,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>674</v>
+        <v>273</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>585</v>
+      <c r="A166" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>669</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6939,22 +6943,22 @@
       <c r="E166" s="17">
         <v>1</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F166" s="19">
         <v>1</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
       </c>
-      <c r="H166" s="15" t="s">
-        <v>586</v>
+      <c r="H166" s="14" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="15" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6972,15 +6976,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="15" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6998,15 +7002,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -7024,15 +7028,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -7050,15 +7054,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -7076,15 +7080,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>680</v>
+        <v>593</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>681</v>
+        <v>594</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7102,15 +7106,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>682</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -7128,15 +7132,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -7154,15 +7158,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7180,15 +7184,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>678</v>
+        <v>603</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7206,15 +7210,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>677</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>611</v>
+        <v>670</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7232,15 +7236,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>613</v>
+        <v>671</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>679</v>
+        <v>606</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7258,15 +7262,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>617</v>
+        <v>673</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7284,15 +7288,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7310,15 +7314,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="14" t="s">
-        <v>683</v>
-      </c>
-      <c r="B181" s="14" t="s">
-        <v>684</v>
+      <c r="A181" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>614</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7329,22 +7333,22 @@
       <c r="E181" s="17">
         <v>1</v>
       </c>
-      <c r="F181" s="19">
+      <c r="F181" s="17">
         <v>1</v>
       </c>
       <c r="G181" s="3">
         <v>0</v>
       </c>
-      <c r="H181" s="14" t="s">
-        <v>685</v>
+      <c r="H181" s="15" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7362,15 +7366,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="14" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>691</v>
+      <c r="A183" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>681</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7381,22 +7385,22 @@
       <c r="E183" s="17">
         <v>1</v>
       </c>
-      <c r="F183" s="17">
+      <c r="F183" s="19">
         <v>1</v>
       </c>
       <c r="G183" s="3">
         <v>0</v>
       </c>
-      <c r="H183" s="15" t="s">
-        <v>693</v>
+      <c r="H183" s="14" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7414,15 +7418,15 @@
         <v>0</v>
       </c>
       <c r="H184" s="15" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>696</v>
+      <c r="A185" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>686</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7433,22 +7437,22 @@
       <c r="E185" s="17">
         <v>1</v>
       </c>
-      <c r="F185" s="19">
+      <c r="F185" s="17">
         <v>1</v>
       </c>
       <c r="G185" s="3">
         <v>0</v>
       </c>
-      <c r="H185" s="14" t="s">
-        <v>697</v>
+      <c r="H185" s="15" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7466,15 +7470,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="14" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7492,15 +7496,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>428</v>
+        <v>695</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7518,15 +7522,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>274</v>
+        <v>697</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7544,41 +7548,41 @@
         <v>0</v>
       </c>
       <c r="H189" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
+        <v>1</v>
+      </c>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="14" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="B190" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="4">
-        <v>1</v>
-      </c>
-      <c r="F190" s="19">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="27" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="27" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7596,15 +7600,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="27" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="27" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7622,15 +7626,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="27" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="27" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7648,15 +7652,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="27" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="27" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7674,15 +7678,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="27" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7700,15 +7704,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="27" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7726,15 +7730,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="27" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7752,15 +7756,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="27" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7778,15 +7782,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="27" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7804,15 +7808,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="27" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7830,15 +7834,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7856,15 +7860,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="27" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7882,15 +7886,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="27" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7908,15 +7912,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="27" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="27" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7934,15 +7938,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="27" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="27" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7960,15 +7964,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="27" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7986,15 +7990,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="27" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -8012,15 +8016,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="27" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>121</v>
+        <v>494</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -8028,7 +8032,7 @@
       <c r="D208" s="2">
         <v>0</v>
       </c>
-      <c r="E208" s="17">
+      <c r="E208" s="4">
         <v>1</v>
       </c>
       <c r="F208" s="19">
@@ -8038,67 +8042,67 @@
         <v>0</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>277</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="27" t="s">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="B209" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="17">
+        <v>1</v>
+      </c>
+      <c r="F209" s="19">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B210" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="17">
-        <v>1</v>
-      </c>
-      <c r="F209" s="19">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="27" t="s">
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="17">
+        <v>1</v>
+      </c>
+      <c r="F210" s="19">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="27" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="25" t="s">
-        <v>626</v>
-      </c>
-      <c r="B210" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="17">
-        <v>1</v>
-      </c>
-      <c r="F210" s="19">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="25" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="25" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -8116,15 +8120,15 @@
         <v>0</v>
       </c>
       <c r="H211" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="25" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -8139,18 +8143,18 @@
         <v>1</v>
       </c>
       <c r="G212" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -8168,15 +8172,15 @@
         <v>1</v>
       </c>
       <c r="H213" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -8191,18 +8195,18 @@
         <v>1</v>
       </c>
       <c r="G214" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -8220,15 +8224,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8246,15 +8250,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8272,15 +8276,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8298,15 +8302,15 @@
         <v>0</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -8324,15 +8328,15 @@
         <v>0</v>
       </c>
       <c r="H219" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -8350,15 +8354,15 @@
         <v>0</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -8376,15 +8380,15 @@
         <v>0</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -8402,15 +8406,15 @@
         <v>0</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -8428,15 +8432,15 @@
         <v>0</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -8454,67 +8458,67 @@
         <v>0</v>
       </c>
       <c r="H224" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B225" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0</v>
+      </c>
+      <c r="E225" s="17">
+        <v>1</v>
+      </c>
+      <c r="F225" s="19">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0</v>
+      </c>
+      <c r="H225" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B226" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C225" s="2">
-        <v>0</v>
-      </c>
-      <c r="D225" s="2">
-        <v>0</v>
-      </c>
-      <c r="E225" s="17">
-        <v>1</v>
-      </c>
-      <c r="F225" s="19">
-        <v>1</v>
-      </c>
-      <c r="G225" s="3">
-        <v>0</v>
-      </c>
-      <c r="H225" s="25" t="s">
+      <c r="C226" s="2">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0</v>
+      </c>
+      <c r="E226" s="17">
+        <v>1</v>
+      </c>
+      <c r="F226" s="19">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="25" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C226" s="2">
-        <v>0</v>
-      </c>
-      <c r="D226" s="2">
-        <v>0</v>
-      </c>
-      <c r="E226" s="17">
-        <v>1</v>
-      </c>
-      <c r="F226" s="19">
-        <v>1</v>
-      </c>
-      <c r="G226" s="3">
-        <v>0</v>
-      </c>
-      <c r="H226" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C227" s="2">
         <v>0</v>
@@ -8525,22 +8529,22 @@
       <c r="E227" s="17">
         <v>1</v>
       </c>
-      <c r="F227" s="17">
+      <c r="F227" s="19">
         <v>1</v>
       </c>
       <c r="G227" s="3">
         <v>0</v>
       </c>
       <c r="H227" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -8551,22 +8555,22 @@
       <c r="E228" s="17">
         <v>1</v>
       </c>
-      <c r="F228" s="19">
+      <c r="F228" s="17">
         <v>1</v>
       </c>
       <c r="G228" s="3">
         <v>0</v>
       </c>
       <c r="H228" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -8584,15 +8588,15 @@
         <v>0</v>
       </c>
       <c r="H229" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -8610,15 +8614,15 @@
         <v>0</v>
       </c>
       <c r="H230" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -8636,15 +8640,15 @@
         <v>0</v>
       </c>
       <c r="H231" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>709</v>
+        <v>147</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -8662,15 +8666,15 @@
         <v>0</v>
       </c>
       <c r="H232" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>708</v>
+        <v>644</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -8693,10 +8697,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -8719,10 +8723,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>148</v>
+        <v>705</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -8740,15 +8744,15 @@
         <v>0</v>
       </c>
       <c r="H235" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -8766,15 +8770,15 @@
         <v>0</v>
       </c>
       <c r="H236" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -8792,67 +8796,67 @@
         <v>0</v>
       </c>
       <c r="H237" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B238" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0</v>
+      </c>
+      <c r="E238" s="17">
+        <v>1</v>
+      </c>
+      <c r="F238" s="19">
+        <v>1</v>
+      </c>
+      <c r="G238" s="3">
+        <v>0</v>
+      </c>
+      <c r="H238" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B239" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C238" s="2">
-        <v>0</v>
-      </c>
-      <c r="D238" s="2">
-        <v>0</v>
-      </c>
-      <c r="E238" s="17">
-        <v>1</v>
-      </c>
-      <c r="F238" s="19">
-        <v>1</v>
-      </c>
-      <c r="G238" s="3">
-        <v>0</v>
-      </c>
-      <c r="H238" s="14" t="s">
+      <c r="C239" s="2">
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+      <c r="E239" s="17">
+        <v>1</v>
+      </c>
+      <c r="F239" s="19">
+        <v>1</v>
+      </c>
+      <c r="G239" s="3">
+        <v>0</v>
+      </c>
+      <c r="H239" s="14" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C239" s="2">
-        <v>0</v>
-      </c>
-      <c r="D239" s="2">
-        <v>0</v>
-      </c>
-      <c r="E239" s="17">
-        <v>1</v>
-      </c>
-      <c r="F239" s="19">
-        <v>1</v>
-      </c>
-      <c r="G239" s="3">
-        <v>0</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="15" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C240" s="2">
         <v>0</v>
@@ -8870,15 +8874,15 @@
         <v>0</v>
       </c>
       <c r="H240" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C241" s="2">
         <v>0</v>
@@ -8896,15 +8900,15 @@
         <v>0</v>
       </c>
       <c r="H241" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -8922,15 +8926,15 @@
         <v>0</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -8948,15 +8952,15 @@
         <v>0</v>
       </c>
       <c r="H243" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -8974,15 +8978,15 @@
         <v>0</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -9000,59 +9004,85 @@
         <v>0</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B246" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0</v>
+      </c>
+      <c r="E246" s="17">
+        <v>1</v>
+      </c>
+      <c r="F246" s="19">
+        <v>1</v>
+      </c>
+      <c r="G246" s="3">
+        <v>0</v>
+      </c>
+      <c r="H246" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B247" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C246" s="2">
-        <v>0</v>
-      </c>
-      <c r="D246" s="2">
-        <v>0</v>
-      </c>
-      <c r="E246" s="17">
-        <v>1</v>
-      </c>
-      <c r="F246" s="17">
-        <v>1</v>
-      </c>
-      <c r="G246" s="3">
-        <v>0</v>
-      </c>
-      <c r="H246" s="15" t="s">
+      <c r="C247" s="2">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0</v>
+      </c>
+      <c r="E247" s="17">
+        <v>1</v>
+      </c>
+      <c r="F247" s="17">
+        <v>1</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H247" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="C247" s="2">
-        <v>1</v>
-      </c>
-      <c r="D247" s="2">
-        <v>1</v>
-      </c>
-      <c r="E247" s="4">
-        <v>1</v>
-      </c>
-      <c r="F247" s="3">
-        <v>1</v>
-      </c>
-      <c r="G247" s="3">
-        <v>0</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>563</v>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="720">
   <si>
     <t>old</t>
   </si>
@@ -1313,9 +1313,6 @@
     <t>crfs-t09a1-h2_2o</t>
   </si>
   <si>
-    <t>crfs-t09a2-g3_1</t>
-  </si>
-  <si>
     <t>SubmitterID</t>
   </si>
   <si>
@@ -1514,9 +1511,6 @@
     <t>dx_mlist</t>
   </si>
   <si>
-    <t>crfs-t09a2-g3_1o</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -2175,6 +2169,21 @@
   </si>
   <si>
     <t>location_lvl1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-g3_1</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-t09a2-g3_1o</t>
+  </si>
+  <si>
+    <t>crfs-t02b-physical_fu_guidance_b</t>
+  </si>
+  <si>
+    <t>cg_common_name</t>
+  </si>
+  <si>
+    <t>physical_fu_guidance_b</t>
   </si>
 </sst>
 </file>
@@ -2622,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2659,7 +2668,7 @@
         <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>183</v>
@@ -2745,7 +2754,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>162</v>
@@ -2766,15 +2775,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -2792,15 +2801,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2818,15 +2827,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2844,15 +2853,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2870,15 +2879,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2896,15 +2905,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2922,15 +2931,15 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2948,15 +2957,15 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2974,15 +2983,15 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -3000,15 +3009,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -3026,16 +3035,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>550</v>
-      </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
@@ -3052,15 +3061,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -3078,15 +3087,15 @@
         <v>1</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3104,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3187,10 +3196,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3208,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3265,28 +3274,28 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3369,10 +3378,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3390,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3476,7 +3485,7 @@
         <v>323</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3681,28 +3690,28 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3811,11 +3820,11 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>458</v>
-      </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4123,11 +4132,11 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>560</v>
-      </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
@@ -4144,15 +4153,15 @@
         <v>1</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -4170,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4279,36 +4288,36 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4326,15 +4335,15 @@
         <v>1</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4352,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4409,10 +4418,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4430,15 +4439,15 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4456,33 +4465,33 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4513,10 +4522,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4534,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4617,11 +4626,11 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>450</v>
-      </c>
       <c r="C77" s="2">
         <v>1</v>
       </c>
@@ -4638,16 +4647,16 @@
         <v>1</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>452</v>
-      </c>
       <c r="C78" s="2">
         <v>1</v>
       </c>
@@ -4664,15 +4673,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4693,10 +4702,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4714,93 +4723,93 @@
         <v>1</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1</v>
+      </c>
+      <c r="H81" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-      <c r="F81" s="4">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="4">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-      <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="F83" s="4">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -4818,75 +4827,75 @@
         <v>1</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>51</v>
+      <c r="A86" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>718</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C87" s="17">
-        <v>0</v>
-      </c>
-      <c r="D87" s="17">
-        <v>0</v>
-      </c>
-      <c r="E87" s="18">
+        <v>51</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4896,15 +4905,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C88" s="17">
         <v>0</v>
@@ -4912,7 +4921,7 @@
       <c r="D88" s="17">
         <v>0</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="18">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4922,15 +4931,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" s="17">
         <v>0</v>
@@ -4938,7 +4947,7 @@
       <c r="D89" s="17">
         <v>0</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="17">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4948,15 +4957,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90" s="17">
         <v>0</v>
@@ -4974,23 +4983,23 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="4">
+        <v>55</v>
+      </c>
+      <c r="C91" s="17">
+        <v>0</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0</v>
+      </c>
+      <c r="E91" s="18">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -5000,15 +5009,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -5026,15 +5035,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -5052,15 +5061,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -5078,15 +5087,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -5104,15 +5113,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -5130,15 +5139,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -5156,15 +5165,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -5182,15 +5191,15 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -5208,15 +5217,15 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -5234,15 +5243,15 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -5260,15 +5269,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5286,15 +5295,15 @@
         <v>1</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5312,15 +5321,15 @@
         <v>1</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5338,15 +5347,15 @@
         <v>1</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5364,23 +5373,23 @@
         <v>1</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="17">
+        <v>70</v>
+      </c>
+      <c r="C106" s="2">
         <v>0</v>
       </c>
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="4">
         <v>1</v>
       </c>
       <c r="F106" s="3">
@@ -5390,15 +5399,15 @@
         <v>1</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C107" s="17">
         <v>0</v>
@@ -5406,7 +5415,7 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="18">
         <v>1</v>
       </c>
       <c r="F107" s="3">
@@ -5416,15 +5425,15 @@
         <v>1</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C108" s="17">
         <v>0</v>
@@ -5432,7 +5441,7 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="17">
         <v>1</v>
       </c>
       <c r="F108" s="3">
@@ -5442,15 +5451,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C109" s="17">
         <v>0</v>
@@ -5468,15 +5477,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
@@ -5484,7 +5493,7 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="17">
+      <c r="E110" s="18">
         <v>1</v>
       </c>
       <c r="F110" s="3">
@@ -5494,15 +5503,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
@@ -5510,7 +5519,7 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="17">
         <v>1</v>
       </c>
       <c r="F111" s="3">
@@ -5520,15 +5529,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C112" s="17">
         <v>0</v>
@@ -5546,17 +5555,17 @@
         <v>1</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="2">
+        <v>77</v>
+      </c>
+      <c r="C113" s="17">
         <v>0</v>
       </c>
       <c r="D113" s="2">
@@ -5572,85 +5581,85 @@
         <v>1</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B115" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C114" s="2">
-        <v>0</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1</v>
-      </c>
-      <c r="H114" s="13" t="s">
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="B115" s="14" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="17">
-        <v>1</v>
-      </c>
-      <c r="F115" s="19">
-        <v>1</v>
-      </c>
-      <c r="G115" s="3">
-        <v>0</v>
-      </c>
-      <c r="H115" s="14" t="s">
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="17">
+        <v>1</v>
+      </c>
+      <c r="F116" s="19">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="14" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5667,50 +5676,50 @@
         <v>1</v>
       </c>
       <c r="E117" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
       </c>
       <c r="H117" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B118" s="21" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>80</v>
-      </c>
       <c r="C118" s="2">
         <v>0</v>
       </c>
       <c r="D118" s="2">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
       </c>
       <c r="F118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
-        <v>1</v>
-      </c>
-      <c r="H118" s="14" t="s">
-        <v>215</v>
+        <v>0</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5725,18 +5734,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5754,15 +5763,15 @@
         <v>0</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5780,15 +5789,15 @@
         <v>0</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5806,15 +5815,15 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5832,15 +5841,15 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5858,15 +5867,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5884,15 +5893,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5910,15 +5919,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5936,15 +5945,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5962,15 +5971,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5988,15 +5997,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -6014,15 +6023,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -6040,15 +6049,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -6066,15 +6075,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -6092,15 +6101,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -6118,15 +6127,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -6141,18 +6150,18 @@
         <v>1</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>98</v>
+        <v>406</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -6170,15 +6179,15 @@
         <v>1</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -6196,15 +6205,15 @@
         <v>1</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -6222,15 +6231,15 @@
         <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6248,15 +6257,15 @@
         <v>1</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6274,15 +6283,15 @@
         <v>1</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6300,15 +6309,15 @@
         <v>1</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6326,15 +6335,15 @@
         <v>1</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6342,25 +6351,25 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="17">
-        <v>1</v>
-      </c>
-      <c r="F143" s="19">
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
         <v>1</v>
       </c>
       <c r="G143" s="3">
         <v>1</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6378,15 +6387,15 @@
         <v>1</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6404,15 +6413,15 @@
         <v>1</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6423,22 +6432,22 @@
       <c r="E146" s="17">
         <v>1</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="19">
         <v>1</v>
       </c>
       <c r="G146" s="3">
         <v>1</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6449,22 +6458,22 @@
       <c r="E147" s="17">
         <v>1</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="17">
         <v>1</v>
       </c>
       <c r="G147" s="3">
         <v>1</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6482,15 +6491,15 @@
         <v>1</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6508,67 +6517,67 @@
         <v>1</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="17">
+        <v>1</v>
+      </c>
+      <c r="F150" s="19">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B151" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="17">
-        <v>1</v>
-      </c>
-      <c r="F150" s="17">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>1</v>
-      </c>
-      <c r="H150" s="14" t="s">
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="17">
+        <v>1</v>
+      </c>
+      <c r="F151" s="17">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+      <c r="H151" s="14" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B151" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="17">
-        <v>1</v>
-      </c>
-      <c r="F151" s="19">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>1</v>
-      </c>
-      <c r="H151" s="26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="26" t="s">
-        <v>665</v>
+        <v>422</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>707</v>
+        <v>113</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6586,15 +6595,15 @@
         <v>1</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>666</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
-        <v>423</v>
+        <v>663</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>114</v>
+        <v>705</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6609,18 +6618,18 @@
         <v>1</v>
       </c>
       <c r="G153" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>114</v>
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="26" t="s">
-        <v>708</v>
+        <v>423</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6635,18 +6644,18 @@
         <v>1</v>
       </c>
       <c r="G154" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>706</v>
+        <v>123</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6664,15 +6673,15 @@
         <v>1</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>700</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>510</v>
+        <v>704</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6690,15 +6699,15 @@
         <v>1</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>511</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="26" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6716,15 +6725,15 @@
         <v>1</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="25" t="s">
-        <v>712</v>
-      </c>
-      <c r="B158" s="25" t="s">
-        <v>115</v>
+      <c r="A158" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>510</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6739,18 +6748,18 @@
         <v>1</v>
       </c>
       <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="25" t="s">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="H158" s="26" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>124</v>
+        <v>710</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6768,67 +6777,67 @@
         <v>0</v>
       </c>
       <c r="H159" s="25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="25" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B160" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="17">
+        <v>1</v>
+      </c>
+      <c r="F160" s="19">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B161" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="17">
-        <v>1</v>
-      </c>
-      <c r="F160" s="19">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="25" t="s">
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="17">
+        <v>1</v>
+      </c>
+      <c r="F161" s="19">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="25" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="17">
-        <v>1</v>
-      </c>
-      <c r="F161" s="19">
-        <v>1</v>
-      </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="14" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6846,15 +6855,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>271</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6865,22 +6874,22 @@
       <c r="E163" s="17">
         <v>1</v>
       </c>
-      <c r="F163" s="17">
+      <c r="F163" s="19">
         <v>1</v>
       </c>
       <c r="G163" s="3">
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>537</v>
+        <v>425</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>533</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6891,22 +6900,22 @@
       <c r="E164" s="17">
         <v>1</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="17">
         <v>1</v>
       </c>
       <c r="G164" s="3">
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>534</v>
+        <v>272</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6924,42 +6933,42 @@
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="17">
+        <v>1</v>
+      </c>
+      <c r="F166" s="19">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B167" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="B166" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="17">
-        <v>1</v>
-      </c>
-      <c r="F166" s="19">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3">
-        <v>0</v>
-      </c>
-      <c r="H166" s="14" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>579</v>
-      </c>
       <c r="C167" s="2">
         <v>0</v>
       </c>
@@ -6969,22 +6978,22 @@
       <c r="E167" s="17">
         <v>1</v>
       </c>
-      <c r="F167" s="17">
+      <c r="F167" s="19">
         <v>1</v>
       </c>
       <c r="G167" s="3">
         <v>0</v>
       </c>
-      <c r="H167" s="15" t="s">
-        <v>580</v>
+      <c r="H167" s="14" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -7002,15 +7011,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="15" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -7028,15 +7037,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -7054,15 +7063,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -7080,15 +7089,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7106,15 +7115,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -7132,15 +7141,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>676</v>
+        <v>593</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -7158,15 +7167,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7184,15 +7193,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7210,15 +7219,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7236,15 +7245,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>671</v>
+        <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>605</v>
+        <v>668</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7262,15 +7271,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>607</v>
+        <v>669</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>673</v>
+        <v>604</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7288,15 +7297,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>611</v>
+        <v>671</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7314,171 +7323,171 @@
         <v>0</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>1</v>
+      </c>
+      <c r="F181" s="17">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="17">
-        <v>1</v>
-      </c>
-      <c r="F181" s="17">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="B182" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="17">
-        <v>1</v>
-      </c>
-      <c r="F182" s="19">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="19">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="19">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>680</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>1</v>
-      </c>
-      <c r="F183" s="19">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="14" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>1</v>
-      </c>
-      <c r="F184" s="17">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>1</v>
+      </c>
+      <c r="F185" s="17">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B186" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>1</v>
+      </c>
+      <c r="F186" s="17">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="17">
-        <v>1</v>
-      </c>
-      <c r="F185" s="17">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="B186" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="17">
-        <v>1</v>
-      </c>
-      <c r="F186" s="19">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="14" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7496,15 +7505,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7522,15 +7531,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>427</v>
+        <v>693</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7548,67 +7557,67 @@
         <v>0</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>274</v>
+        <v>695</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
+        <v>1</v>
+      </c>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="B190" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="17">
-        <v>1</v>
-      </c>
-      <c r="F190" s="19">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="14" t="s">
+      <c r="B191" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="17">
+        <v>1</v>
+      </c>
+      <c r="F191" s="19">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="14" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="B191" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="4">
-        <v>1</v>
-      </c>
-      <c r="F191" s="19">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="27" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7626,15 +7635,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="27" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7652,15 +7661,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7678,15 +7687,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7704,15 +7713,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="27" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7730,15 +7739,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7756,15 +7765,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7782,15 +7791,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7808,15 +7817,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7834,15 +7843,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7860,15 +7869,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="27" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7886,15 +7895,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="27" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7912,15 +7921,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7938,15 +7947,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="27" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7964,15 +7973,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="27" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7990,15 +7999,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="27" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -8016,12 +8025,12 @@
         <v>0</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="27" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B208" s="27" t="s">
         <v>494</v>
@@ -8042,15 +8051,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="27" t="s">
-        <v>429</v>
+        <v>529</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>121</v>
+        <v>493</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -8058,7 +8067,7 @@
       <c r="D209" s="2">
         <v>0</v>
       </c>
-      <c r="E209" s="17">
+      <c r="E209" s="4">
         <v>1</v>
       </c>
       <c r="F209" s="19">
@@ -8068,67 +8077,67 @@
         <v>0</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="27" t="s">
-        <v>496</v>
+        <v>715</v>
       </c>
       <c r="B210" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="17">
+        <v>1</v>
+      </c>
+      <c r="F210" s="19">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="B211" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="17">
-        <v>1</v>
-      </c>
-      <c r="F210" s="19">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="27" t="s">
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="17">
+        <v>1</v>
+      </c>
+      <c r="F211" s="19">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="27" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="B211" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="17">
-        <v>1</v>
-      </c>
-      <c r="F211" s="19">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="25" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="25" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -8146,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -8154,7 +8163,7 @@
         <v>619</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -8169,18 +8178,18 @@
         <v>1</v>
       </c>
       <c r="G213" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -8198,15 +8207,15 @@
         <v>1</v>
       </c>
       <c r="H214" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -8221,18 +8230,18 @@
         <v>1</v>
       </c>
       <c r="G215" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8250,15 +8259,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8276,15 +8285,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8302,15 +8311,15 @@
         <v>0</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -8328,15 +8337,15 @@
         <v>0</v>
       </c>
       <c r="H219" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -8354,15 +8363,15 @@
         <v>0</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -8380,15 +8389,15 @@
         <v>0</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -8406,15 +8415,15 @@
         <v>0</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -8432,15 +8441,15 @@
         <v>0</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -8458,15 +8467,15 @@
         <v>0</v>
       </c>
       <c r="H224" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -8484,67 +8493,67 @@
         <v>0</v>
       </c>
       <c r="H225" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B226" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0</v>
+      </c>
+      <c r="E226" s="17">
+        <v>1</v>
+      </c>
+      <c r="F226" s="19">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="B227" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C226" s="2">
-        <v>0</v>
-      </c>
-      <c r="D226" s="2">
-        <v>0</v>
-      </c>
-      <c r="E226" s="17">
-        <v>1</v>
-      </c>
-      <c r="F226" s="19">
-        <v>1</v>
-      </c>
-      <c r="G226" s="3">
-        <v>0</v>
-      </c>
-      <c r="H226" s="25" t="s">
+      <c r="C227" s="2">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0</v>
+      </c>
+      <c r="E227" s="17">
+        <v>1</v>
+      </c>
+      <c r="F227" s="19">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="25" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="B227" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C227" s="2">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2">
-        <v>0</v>
-      </c>
-      <c r="E227" s="17">
-        <v>1</v>
-      </c>
-      <c r="F227" s="19">
-        <v>1</v>
-      </c>
-      <c r="G227" s="3">
-        <v>0</v>
-      </c>
-      <c r="H227" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -8555,22 +8564,22 @@
       <c r="E228" s="17">
         <v>1</v>
       </c>
-      <c r="F228" s="17">
+      <c r="F228" s="19">
         <v>1</v>
       </c>
       <c r="G228" s="3">
         <v>0</v>
       </c>
       <c r="H228" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -8581,22 +8590,22 @@
       <c r="E229" s="17">
         <v>1</v>
       </c>
-      <c r="F229" s="19">
+      <c r="F229" s="17">
         <v>1</v>
       </c>
       <c r="G229" s="3">
         <v>0</v>
       </c>
       <c r="H229" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -8614,15 +8623,15 @@
         <v>0</v>
       </c>
       <c r="H230" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -8640,15 +8649,15 @@
         <v>0</v>
       </c>
       <c r="H231" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -8666,15 +8675,15 @@
         <v>0</v>
       </c>
       <c r="H232" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>702</v>
+        <v>147</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -8692,15 +8701,15 @@
         <v>0</v>
       </c>
       <c r="H233" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>701</v>
+        <v>642</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -8723,10 +8732,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -8749,10 +8758,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>640</v>
+        <v>701</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>148</v>
+        <v>703</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -8770,15 +8779,15 @@
         <v>0</v>
       </c>
       <c r="H236" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -8796,15 +8805,15 @@
         <v>0</v>
       </c>
       <c r="H237" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -8822,67 +8831,67 @@
         <v>0</v>
       </c>
       <c r="H238" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B239" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+      <c r="E239" s="17">
+        <v>1</v>
+      </c>
+      <c r="F239" s="19">
+        <v>1</v>
+      </c>
+      <c r="G239" s="3">
+        <v>0</v>
+      </c>
+      <c r="H239" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B240" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C239" s="2">
-        <v>0</v>
-      </c>
-      <c r="D239" s="2">
-        <v>0</v>
-      </c>
-      <c r="E239" s="17">
-        <v>1</v>
-      </c>
-      <c r="F239" s="19">
-        <v>1</v>
-      </c>
-      <c r="G239" s="3">
-        <v>0</v>
-      </c>
-      <c r="H239" s="14" t="s">
+      <c r="C240" s="2">
+        <v>0</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0</v>
+      </c>
+      <c r="E240" s="17">
+        <v>1</v>
+      </c>
+      <c r="F240" s="19">
+        <v>1</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0</v>
+      </c>
+      <c r="H240" s="14" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C240" s="2">
-        <v>0</v>
-      </c>
-      <c r="D240" s="2">
-        <v>0</v>
-      </c>
-      <c r="E240" s="17">
-        <v>1</v>
-      </c>
-      <c r="F240" s="19">
-        <v>1</v>
-      </c>
-      <c r="G240" s="3">
-        <v>0</v>
-      </c>
-      <c r="H240" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C241" s="2">
         <v>0</v>
@@ -8900,15 +8909,15 @@
         <v>0</v>
       </c>
       <c r="H241" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -8926,15 +8935,15 @@
         <v>0</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -8952,15 +8961,15 @@
         <v>0</v>
       </c>
       <c r="H243" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -8978,15 +8987,15 @@
         <v>0</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -9004,15 +9013,15 @@
         <v>0</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -9030,59 +9039,85 @@
         <v>0</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0</v>
+      </c>
+      <c r="E247" s="17">
+        <v>1</v>
+      </c>
+      <c r="F247" s="19">
+        <v>1</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B248" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C247" s="2">
-        <v>0</v>
-      </c>
-      <c r="D247" s="2">
-        <v>0</v>
-      </c>
-      <c r="E247" s="17">
-        <v>1</v>
-      </c>
-      <c r="F247" s="17">
-        <v>1</v>
-      </c>
-      <c r="G247" s="3">
-        <v>0</v>
-      </c>
-      <c r="H247" s="15" t="s">
+      <c r="C248" s="2">
+        <v>0</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0</v>
+      </c>
+      <c r="E248" s="17">
+        <v>1</v>
+      </c>
+      <c r="F248" s="17">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0</v>
+      </c>
+      <c r="H248" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="5" t="s">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1</v>
+      </c>
+      <c r="D249" s="2">
+        <v>1</v>
+      </c>
+      <c r="E249" s="4">
+        <v>1</v>
+      </c>
+      <c r="F249" s="3">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>0</v>
+      </c>
+      <c r="H249" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="C248" s="2">
-        <v>1</v>
-      </c>
-      <c r="D248" s="2">
-        <v>1</v>
-      </c>
-      <c r="E248" s="4">
-        <v>1</v>
-      </c>
-      <c r="F248" s="3">
-        <v>1</v>
-      </c>
-      <c r="G248" s="3">
-        <v>0</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="722">
   <si>
     <t>old</t>
   </si>
@@ -2184,6 +2184,12 @@
   </si>
   <si>
     <t>physical_fu_guidance_b</t>
+  </si>
+  <si>
+    <t>consent-arm</t>
+  </si>
+  <si>
+    <t>arm</t>
   </si>
 </sst>
 </file>
@@ -2631,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4209,193 +4215,193 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>32</v>
+      <c r="A61" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>721</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>196</v>
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>660</v>
+        <v>353</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>661</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
       </c>
       <c r="D64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>662</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>507</v>
+        <v>660</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>505</v>
+        <v>661</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>506</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -4413,15 +4419,15 @@
         <v>0</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4439,15 +4445,15 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>433</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4465,15 +4471,15 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4491,15 +4497,15 @@
         <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4517,15 +4523,15 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>569</v>
+        <v>356</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>567</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4543,15 +4549,15 @@
         <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>568</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>357</v>
+        <v>569</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>41</v>
+        <v>567</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4569,15 +4575,15 @@
         <v>0</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>204</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4595,117 +4601,119 @@
         <v>0</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="9" t="s">
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="11" t="s">
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="11" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1</v>
-      </c>
-      <c r="E79" s="4">
-        <v>1</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>713</v>
+        <v>445</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>714</v>
+        <v>447</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4722,16 +4730,14 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>446</v>
-      </c>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>496</v>
+        <v>713</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>497</v>
+        <v>714</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4749,15 +4755,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4775,15 +4781,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4801,18 +4807,18 @@
         <v>1</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
@@ -4827,101 +4833,101 @@
         <v>1</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
       <c r="E85" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="11" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C88" s="17">
-        <v>0</v>
-      </c>
-      <c r="D88" s="17">
-        <v>0</v>
-      </c>
-      <c r="E88" s="18">
+        <v>51</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4931,15 +4937,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C89" s="17">
         <v>0</v>
@@ -4947,7 +4953,7 @@
       <c r="D89" s="17">
         <v>0</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="18">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4957,15 +4963,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" s="17">
         <v>0</v>
@@ -4973,7 +4979,7 @@
       <c r="D90" s="17">
         <v>0</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="17">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4983,15 +4989,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
@@ -5009,23 +5015,23 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0</v>
-      </c>
-      <c r="D92" s="2">
-        <v>0</v>
-      </c>
-      <c r="E92" s="4">
+        <v>55</v>
+      </c>
+      <c r="C92" s="17">
+        <v>0</v>
+      </c>
+      <c r="D92" s="17">
+        <v>0</v>
+      </c>
+      <c r="E92" s="18">
         <v>1</v>
       </c>
       <c r="F92" s="3">
@@ -5035,15 +5041,15 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -5061,15 +5067,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -5087,15 +5093,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -5113,15 +5119,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -5139,15 +5145,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -5165,15 +5171,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -5191,15 +5197,15 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -5217,15 +5223,15 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -5243,15 +5249,15 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -5269,15 +5275,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5295,15 +5301,15 @@
         <v>1</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5321,15 +5327,15 @@
         <v>1</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5347,15 +5353,15 @@
         <v>1</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5373,15 +5379,15 @@
         <v>1</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5399,23 +5405,23 @@
         <v>1</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C107" s="17">
+        <v>70</v>
+      </c>
+      <c r="C107" s="2">
         <v>0</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="4">
         <v>1</v>
       </c>
       <c r="F107" s="3">
@@ -5425,15 +5431,15 @@
         <v>1</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C108" s="17">
         <v>0</v>
@@ -5441,7 +5447,7 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="18">
         <v>1</v>
       </c>
       <c r="F108" s="3">
@@ -5451,15 +5457,15 @@
         <v>1</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C109" s="17">
         <v>0</v>
@@ -5467,7 +5473,7 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="17">
         <v>1</v>
       </c>
       <c r="F109" s="3">
@@ -5477,15 +5483,15 @@
         <v>1</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
@@ -5503,15 +5509,15 @@
         <v>1</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
@@ -5519,7 +5525,7 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="18">
         <v>1</v>
       </c>
       <c r="F111" s="3">
@@ -5529,15 +5535,15 @@
         <v>1</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" s="17">
         <v>0</v>
@@ -5545,7 +5551,7 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="17">
         <v>1</v>
       </c>
       <c r="F112" s="3">
@@ -5555,15 +5561,15 @@
         <v>1</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C113" s="17">
         <v>0</v>
@@ -5581,17 +5587,17 @@
         <v>1</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="2">
+        <v>77</v>
+      </c>
+      <c r="C114" s="17">
         <v>0</v>
       </c>
       <c r="D114" s="2">
@@ -5607,145 +5613,145 @@
         <v>1</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B116" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C115" s="2">
-        <v>0</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0</v>
-      </c>
-      <c r="E115" s="4">
-        <v>1</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="13" t="s">
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B117" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="17">
-        <v>1</v>
-      </c>
-      <c r="F116" s="19">
-        <v>1</v>
-      </c>
-      <c r="G116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="14" t="s">
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="17">
+        <v>1</v>
+      </c>
+      <c r="F117" s="19">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="14" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>1</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1</v>
-      </c>
-      <c r="F117" s="3">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="22" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B119" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="22" t="s">
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="22" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3">
-        <v>1</v>
-      </c>
-      <c r="H119" s="14" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5760,18 +5766,18 @@
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5789,15 +5795,15 @@
         <v>0</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5815,15 +5821,15 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5841,15 +5847,15 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5867,15 +5873,15 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5893,15 +5899,15 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5919,15 +5925,15 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5945,15 +5951,15 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5971,15 +5977,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5997,15 +6003,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -6023,15 +6029,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -6049,15 +6055,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -6075,15 +6081,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -6101,15 +6107,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -6127,15 +6133,15 @@
         <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -6153,15 +6159,15 @@
         <v>0</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -6176,18 +6182,18 @@
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>98</v>
+        <v>406</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -6205,15 +6211,15 @@
         <v>1</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B138" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -6231,15 +6237,15 @@
         <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6257,15 +6263,15 @@
         <v>1</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6283,15 +6289,15 @@
         <v>1</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6309,15 +6315,15 @@
         <v>1</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6335,15 +6341,15 @@
         <v>1</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6361,15 +6367,15 @@
         <v>1</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6377,25 +6383,25 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="17">
-        <v>1</v>
-      </c>
-      <c r="F144" s="19">
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
         <v>1</v>
       </c>
       <c r="G144" s="3">
         <v>1</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6413,15 +6419,15 @@
         <v>1</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6439,15 +6445,15 @@
         <v>1</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6458,22 +6464,22 @@
       <c r="E147" s="17">
         <v>1</v>
       </c>
-      <c r="F147" s="17">
+      <c r="F147" s="19">
         <v>1</v>
       </c>
       <c r="G147" s="3">
         <v>1</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6484,22 +6490,22 @@
       <c r="E148" s="17">
         <v>1</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="17">
         <v>1</v>
       </c>
       <c r="G148" s="3">
         <v>1</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6517,15 +6523,15 @@
         <v>1</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6543,67 +6549,67 @@
         <v>1</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="17">
+        <v>1</v>
+      </c>
+      <c r="F151" s="19">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B152" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="17">
-        <v>1</v>
-      </c>
-      <c r="F151" s="17">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>1</v>
-      </c>
-      <c r="H151" s="14" t="s">
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17">
+        <v>1</v>
+      </c>
+      <c r="F152" s="17">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+      <c r="H152" s="14" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="17">
-        <v>1</v>
-      </c>
-      <c r="F152" s="19">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>1</v>
-      </c>
-      <c r="H152" s="26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="26" t="s">
-        <v>663</v>
+        <v>422</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>705</v>
+        <v>113</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6621,15 +6627,15 @@
         <v>1</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>664</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="26" t="s">
-        <v>423</v>
+        <v>663</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>114</v>
+        <v>705</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6644,18 +6650,18 @@
         <v>1</v>
       </c>
       <c r="G154" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>114</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="26" t="s">
-        <v>706</v>
+        <v>423</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6670,18 +6676,18 @@
         <v>1</v>
       </c>
       <c r="G155" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>704</v>
+        <v>123</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6699,15 +6705,15 @@
         <v>1</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>698</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6725,67 +6731,67 @@
         <v>1</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>509</v>
+        <v>698</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="17">
+        <v>1</v>
+      </c>
+      <c r="F158" s="19">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B159" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="C158" s="2">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="17">
-        <v>1</v>
-      </c>
-      <c r="F158" s="19">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3">
-        <v>1</v>
-      </c>
-      <c r="H158" s="26" t="s">
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="17">
+        <v>1</v>
+      </c>
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="26" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="17">
-        <v>1</v>
-      </c>
-      <c r="F159" s="19">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="25" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="25" t="s">
-        <v>711</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>124</v>
+        <v>710</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6803,67 +6809,67 @@
         <v>0</v>
       </c>
       <c r="H160" s="25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B161" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="17">
+        <v>1</v>
+      </c>
+      <c r="F161" s="19">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="B161" s="28" t="s">
+      <c r="B162" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="17">
-        <v>1</v>
-      </c>
-      <c r="F161" s="19">
-        <v>1</v>
-      </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="25" t="s">
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="17">
+        <v>1</v>
+      </c>
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="25" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="17">
-        <v>1</v>
-      </c>
-      <c r="F162" s="19">
-        <v>1</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="14" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6881,15 +6887,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>271</v>
+        <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6900,22 +6906,22 @@
       <c r="E164" s="17">
         <v>1</v>
       </c>
-      <c r="F164" s="17">
+      <c r="F164" s="19">
         <v>1</v>
       </c>
       <c r="G164" s="3">
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>535</v>
+        <v>425</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>531</v>
+        <v>118</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6926,22 +6932,22 @@
       <c r="E165" s="17">
         <v>1</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="17">
         <v>1</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6959,67 +6965,67 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="17">
+        <v>1</v>
+      </c>
+      <c r="F167" s="19">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B168" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="17">
-        <v>1</v>
-      </c>
-      <c r="F167" s="19">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="14" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="17">
+        <v>1</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="14" t="s">
         <v>666</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="17">
-        <v>1</v>
-      </c>
-      <c r="F168" s="17">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="15" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -7037,15 +7043,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -7063,15 +7069,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -7089,15 +7095,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7115,15 +7121,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -7141,15 +7147,15 @@
         <v>0</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>673</v>
+        <v>592</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -7167,15 +7173,15 @@
         <v>0</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>674</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7193,15 +7199,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7219,15 +7225,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7245,15 +7251,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>670</v>
+        <v>601</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7271,15 +7277,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7297,15 +7303,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7323,15 +7329,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7349,171 +7355,171 @@
         <v>0</v>
       </c>
       <c r="H181" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="B182" s="15" t="s">
+      <c r="B183" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="17">
-        <v>1</v>
-      </c>
-      <c r="F182" s="17">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="15" t="s">
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="17">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="15" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>676</v>
-      </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>1</v>
-      </c>
-      <c r="F183" s="19">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="14" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="19">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="B185" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>1</v>
-      </c>
-      <c r="F184" s="19">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="14" t="s">
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>1</v>
+      </c>
+      <c r="F185" s="19">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="14" t="s">
         <v>680</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="17">
-        <v>1</v>
-      </c>
-      <c r="F185" s="17">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>1</v>
+      </c>
+      <c r="F186" s="17">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B187" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="17">
-        <v>1</v>
-      </c>
-      <c r="F186" s="17">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="15" t="s">
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="17">
+        <v>1</v>
+      </c>
+      <c r="F187" s="17">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="15" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="17">
-        <v>1</v>
-      </c>
-      <c r="F187" s="19">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="14" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7531,15 +7537,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7557,15 +7563,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>427</v>
+        <v>693</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7583,67 +7589,67 @@
         <v>0</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>274</v>
+        <v>695</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="17">
+        <v>1</v>
+      </c>
+      <c r="F191" s="19">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="B192" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="17">
-        <v>1</v>
-      </c>
-      <c r="F191" s="19">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="14" t="s">
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+      <c r="E192" s="17">
+        <v>1</v>
+      </c>
+      <c r="F192" s="19">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="14" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="B192" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2">
-        <v>0</v>
-      </c>
-      <c r="E192" s="4">
-        <v>1</v>
-      </c>
-      <c r="F192" s="19">
-        <v>1</v>
-      </c>
-      <c r="G192" s="3">
-        <v>0</v>
-      </c>
-      <c r="H192" s="27" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B193" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7661,15 +7667,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7687,15 +7693,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7713,15 +7719,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7739,15 +7745,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7765,15 +7771,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7791,15 +7797,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7817,15 +7823,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7843,15 +7849,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7869,15 +7875,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7895,15 +7901,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7921,15 +7927,15 @@
         <v>0</v>
       </c>
       <c r="H203" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7947,15 +7953,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7973,15 +7979,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7999,15 +8005,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -8025,15 +8031,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -8051,15 +8057,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -8077,15 +8083,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="27" t="s">
-        <v>715</v>
+        <v>529</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>121</v>
+        <v>493</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -8093,7 +8099,7 @@
       <c r="D210" s="2">
         <v>0</v>
       </c>
-      <c r="E210" s="17">
+      <c r="E210" s="4">
         <v>1</v>
       </c>
       <c r="F210" s="19">
@@ -8103,67 +8109,67 @@
         <v>0</v>
       </c>
       <c r="H210" s="27" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="17">
+        <v>1</v>
+      </c>
+      <c r="F211" s="19">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="27" t="s">
         <v>716</v>
       </c>
-      <c r="B211" s="27" t="s">
+      <c r="B212" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="17">
-        <v>1</v>
-      </c>
-      <c r="F211" s="19">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="27" t="s">
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="17">
+        <v>1</v>
+      </c>
+      <c r="F212" s="19">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="27" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="B212" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="17">
-        <v>1</v>
-      </c>
-      <c r="F212" s="19">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="25" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -8181,15 +8187,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -8204,18 +8210,18 @@
         <v>1</v>
       </c>
       <c r="G214" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -8233,15 +8239,15 @@
         <v>1</v>
       </c>
       <c r="H215" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8256,18 +8262,18 @@
         <v>1</v>
       </c>
       <c r="G216" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8285,15 +8291,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8311,15 +8317,15 @@
         <v>0</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -8337,15 +8343,15 @@
         <v>0</v>
       </c>
       <c r="H219" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -8363,15 +8369,15 @@
         <v>0</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -8389,15 +8395,15 @@
         <v>0</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -8415,15 +8421,15 @@
         <v>0</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -8441,15 +8447,15 @@
         <v>0</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -8467,15 +8473,15 @@
         <v>0</v>
       </c>
       <c r="H224" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -8493,15 +8499,15 @@
         <v>0</v>
       </c>
       <c r="H225" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
@@ -8519,67 +8525,67 @@
         <v>0</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B227" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0</v>
+      </c>
+      <c r="E227" s="17">
+        <v>1</v>
+      </c>
+      <c r="F227" s="19">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="B227" s="25" t="s">
+      <c r="B228" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C227" s="2">
-        <v>0</v>
-      </c>
-      <c r="D227" s="2">
-        <v>0</v>
-      </c>
-      <c r="E227" s="17">
-        <v>1</v>
-      </c>
-      <c r="F227" s="19">
-        <v>1</v>
-      </c>
-      <c r="G227" s="3">
-        <v>0</v>
-      </c>
-      <c r="H227" s="25" t="s">
+      <c r="C228" s="2">
+        <v>0</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0</v>
+      </c>
+      <c r="E228" s="17">
+        <v>1</v>
+      </c>
+      <c r="F228" s="19">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="25" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="B228" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C228" s="2">
-        <v>0</v>
-      </c>
-      <c r="D228" s="2">
-        <v>0</v>
-      </c>
-      <c r="E228" s="17">
-        <v>1</v>
-      </c>
-      <c r="F228" s="19">
-        <v>1</v>
-      </c>
-      <c r="G228" s="3">
-        <v>0</v>
-      </c>
-      <c r="H228" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -8590,22 +8596,22 @@
       <c r="E229" s="17">
         <v>1</v>
       </c>
-      <c r="F229" s="17">
+      <c r="F229" s="19">
         <v>1</v>
       </c>
       <c r="G229" s="3">
         <v>0</v>
       </c>
       <c r="H229" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -8616,22 +8622,22 @@
       <c r="E230" s="17">
         <v>1</v>
       </c>
-      <c r="F230" s="19">
+      <c r="F230" s="17">
         <v>1</v>
       </c>
       <c r="G230" s="3">
         <v>0</v>
       </c>
       <c r="H230" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -8649,15 +8655,15 @@
         <v>0</v>
       </c>
       <c r="H231" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -8675,15 +8681,15 @@
         <v>0</v>
       </c>
       <c r="H232" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -8701,15 +8707,15 @@
         <v>0</v>
       </c>
       <c r="H233" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>700</v>
+        <v>147</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -8727,15 +8733,15 @@
         <v>0</v>
       </c>
       <c r="H234" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -8758,10 +8764,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -8784,10 +8790,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>638</v>
+        <v>701</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>148</v>
+        <v>703</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -8805,15 +8811,15 @@
         <v>0</v>
       </c>
       <c r="H237" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -8831,15 +8837,15 @@
         <v>0</v>
       </c>
       <c r="H238" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C239" s="2">
         <v>0</v>
@@ -8857,67 +8863,67 @@
         <v>0</v>
       </c>
       <c r="H239" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0</v>
+      </c>
+      <c r="E240" s="17">
+        <v>1</v>
+      </c>
+      <c r="F240" s="19">
+        <v>1</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0</v>
+      </c>
+      <c r="H240" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="B240" s="14" t="s">
+      <c r="B241" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C240" s="2">
-        <v>0</v>
-      </c>
-      <c r="D240" s="2">
-        <v>0</v>
-      </c>
-      <c r="E240" s="17">
-        <v>1</v>
-      </c>
-      <c r="F240" s="19">
-        <v>1</v>
-      </c>
-      <c r="G240" s="3">
-        <v>0</v>
-      </c>
-      <c r="H240" s="14" t="s">
+      <c r="C241" s="2">
+        <v>0</v>
+      </c>
+      <c r="D241" s="2">
+        <v>0</v>
+      </c>
+      <c r="E241" s="17">
+        <v>1</v>
+      </c>
+      <c r="F241" s="19">
+        <v>1</v>
+      </c>
+      <c r="G241" s="3">
+        <v>0</v>
+      </c>
+      <c r="H241" s="14" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="B241" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C241" s="2">
-        <v>0</v>
-      </c>
-      <c r="D241" s="2">
-        <v>0</v>
-      </c>
-      <c r="E241" s="17">
-        <v>1</v>
-      </c>
-      <c r="F241" s="19">
-        <v>1</v>
-      </c>
-      <c r="G241" s="3">
-        <v>0</v>
-      </c>
-      <c r="H241" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -8935,15 +8941,15 @@
         <v>0</v>
       </c>
       <c r="H242" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -8961,15 +8967,15 @@
         <v>0</v>
       </c>
       <c r="H243" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -8987,15 +8993,15 @@
         <v>0</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -9013,15 +9019,15 @@
         <v>0</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -9039,15 +9045,15 @@
         <v>0</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C247" s="2">
         <v>0</v>
@@ -9065,58 +9071,84 @@
         <v>0</v>
       </c>
       <c r="H247" s="15" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0</v>
+      </c>
+      <c r="E248" s="17">
+        <v>1</v>
+      </c>
+      <c r="F248" s="19">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0</v>
+      </c>
+      <c r="H248" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="B248" s="15" t="s">
+      <c r="B249" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C248" s="2">
-        <v>0</v>
-      </c>
-      <c r="D248" s="2">
-        <v>0</v>
-      </c>
-      <c r="E248" s="17">
-        <v>1</v>
-      </c>
-      <c r="F248" s="17">
-        <v>1</v>
-      </c>
-      <c r="G248" s="3">
-        <v>0</v>
-      </c>
-      <c r="H248" s="15" t="s">
+      <c r="C249" s="2">
+        <v>0</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0</v>
+      </c>
+      <c r="E249" s="17">
+        <v>1</v>
+      </c>
+      <c r="F249" s="17">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>0</v>
+      </c>
+      <c r="H249" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="5" t="s">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B250" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C249" s="2">
-        <v>1</v>
-      </c>
-      <c r="D249" s="2">
-        <v>1</v>
-      </c>
-      <c r="E249" s="4">
-        <v>1</v>
-      </c>
-      <c r="F249" s="3">
-        <v>1</v>
-      </c>
-      <c r="G249" s="3">
-        <v>0</v>
-      </c>
-      <c r="H249" s="5" t="s">
+      <c r="C250" s="2">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1</v>
+      </c>
+      <c r="E250" s="4">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H250" s="5" t="s">
         <v>555</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="729">
   <si>
     <t>old</t>
   </si>
@@ -2190,6 +2190,27 @@
   </si>
   <si>
     <t>arm</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>col_integer()</t>
+  </si>
+  <si>
+    <t>col_character()</t>
+  </si>
+  <si>
+    <t>col_date()</t>
+  </si>
+  <si>
+    <t>col_datetime()</t>
+  </si>
+  <si>
+    <t>col_time()</t>
+  </si>
+  <si>
+    <t>col_double()</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2357,6 +2378,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2637,24 +2659,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:O250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.9140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2679,8 +2704,11 @@
       <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2705,8 +2733,12 @@
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2731,8 +2763,11 @@
       <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2757,8 +2792,11 @@
       <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>429</v>
       </c>
@@ -2783,8 +2821,11 @@
       <c r="H5" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>614</v>
       </c>
@@ -2809,8 +2850,11 @@
       <c r="H6" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>551</v>
       </c>
@@ -2835,8 +2879,11 @@
       <c r="H7" s="5" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>495</v>
       </c>
@@ -2861,8 +2908,11 @@
       <c r="H8" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>549</v>
       </c>
@@ -2887,8 +2937,11 @@
       <c r="H9" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>537</v>
       </c>
@@ -2913,8 +2966,11 @@
       <c r="H10" s="5" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>550</v>
       </c>
@@ -2939,8 +2995,11 @@
       <c r="H11" s="5" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>538</v>
       </c>
@@ -2965,8 +3024,11 @@
       <c r="H12" s="20" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>540</v>
       </c>
@@ -2991,8 +3053,11 @@
       <c r="H13" s="20" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>542</v>
       </c>
@@ -3017,8 +3082,11 @@
       <c r="H14" s="20" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>544</v>
       </c>
@@ -3043,8 +3111,11 @@
       <c r="H15" s="20" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>546</v>
       </c>
@@ -3069,8 +3140,11 @@
       <c r="H16" s="16" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>655</v>
       </c>
@@ -3095,8 +3169,11 @@
       <c r="H17" s="23" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>656</v>
       </c>
@@ -3121,8 +3198,11 @@
       <c r="H18" s="23" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>350</v>
       </c>
@@ -3147,8 +3227,11 @@
       <c r="H19" s="12" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>316</v>
       </c>
@@ -3173,8 +3256,11 @@
       <c r="H20" s="11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>317</v>
       </c>
@@ -3199,8 +3285,11 @@
       <c r="H21" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>430</v>
       </c>
@@ -3225,8 +3314,11 @@
       <c r="H22" s="8" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>318</v>
       </c>
@@ -3251,8 +3343,11 @@
       <c r="H23" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>319</v>
       </c>
@@ -3277,8 +3372,11 @@
       <c r="H24" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>438</v>
       </c>
@@ -3303,8 +3401,11 @@
       <c r="H25" s="11" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>320</v>
       </c>
@@ -3329,8 +3430,11 @@
       <c r="H26" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>321</v>
       </c>
@@ -3355,8 +3459,11 @@
       <c r="H27" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>322</v>
       </c>
@@ -3381,8 +3488,11 @@
       <c r="H28" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>437</v>
       </c>
@@ -3407,8 +3517,11 @@
       <c r="H29" s="11" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>324</v>
       </c>
@@ -3433,8 +3546,11 @@
       <c r="H30" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>325</v>
       </c>
@@ -3459,8 +3575,11 @@
       <c r="H31" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>326</v>
       </c>
@@ -3485,8 +3604,11 @@
       <c r="H32" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>323</v>
       </c>
@@ -3511,8 +3633,11 @@
       <c r="H33" s="11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>327</v>
       </c>
@@ -3537,8 +3662,11 @@
       <c r="H34" s="24" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>328</v>
       </c>
@@ -3563,8 +3691,11 @@
       <c r="H35" s="24" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>329</v>
       </c>
@@ -3589,8 +3720,11 @@
       <c r="H36" s="24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>330</v>
       </c>
@@ -3615,8 +3749,11 @@
       <c r="H37" s="24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>331</v>
       </c>
@@ -3641,8 +3778,11 @@
       <c r="H38" s="24" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>332</v>
       </c>
@@ -3667,8 +3807,11 @@
       <c r="H39" s="24" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>333</v>
       </c>
@@ -3693,8 +3836,11 @@
       <c r="H40" s="24" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>452</v>
       </c>
@@ -3719,8 +3865,11 @@
       <c r="H41" s="24" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>334</v>
       </c>
@@ -3745,8 +3894,11 @@
       <c r="H42" s="12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>335</v>
       </c>
@@ -3771,8 +3923,11 @@
       <c r="H43" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>336</v>
       </c>
@@ -3797,8 +3952,11 @@
       <c r="H44" s="12" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>337</v>
       </c>
@@ -3823,8 +3981,11 @@
       <c r="H45" s="12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>456</v>
       </c>
@@ -3849,8 +4010,11 @@
       <c r="H46" s="12" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>338</v>
       </c>
@@ -3875,8 +4039,11 @@
       <c r="H47" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>339</v>
       </c>
@@ -3901,8 +4068,11 @@
       <c r="H48" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>340</v>
       </c>
@@ -3927,8 +4097,11 @@
       <c r="H49" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>341</v>
       </c>
@@ -3953,8 +4126,11 @@
       <c r="H50" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>342</v>
       </c>
@@ -3979,8 +4155,11 @@
       <c r="H51" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>343</v>
       </c>
@@ -4005,8 +4184,11 @@
       <c r="H52" s="7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>344</v>
       </c>
@@ -4031,8 +4213,11 @@
       <c r="H53" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>345</v>
       </c>
@@ -4057,8 +4242,11 @@
       <c r="H54" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>346</v>
       </c>
@@ -4083,8 +4271,11 @@
       <c r="H55" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>347</v>
       </c>
@@ -4109,8 +4300,11 @@
       <c r="H56" s="7" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>348</v>
       </c>
@@ -4135,8 +4329,11 @@
       <c r="H57" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>556</v>
       </c>
@@ -4161,8 +4358,11 @@
       <c r="H58" s="6" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>557</v>
       </c>
@@ -4187,8 +4387,11 @@
       <c r="H59" s="6" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>349</v>
       </c>
@@ -4213,8 +4416,11 @@
       <c r="H60" s="7" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>720</v>
       </c>
@@ -4239,8 +4445,11 @@
       <c r="H61" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>351</v>
       </c>
@@ -4265,8 +4474,11 @@
       <c r="H62" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>352</v>
       </c>
@@ -4291,8 +4503,11 @@
       <c r="H63" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>353</v>
       </c>
@@ -4317,8 +4532,11 @@
       <c r="H64" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>660</v>
       </c>
@@ -4343,8 +4561,11 @@
       <c r="H65" s="11" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>507</v>
       </c>
@@ -4369,8 +4590,11 @@
       <c r="H66" s="11" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>658</v>
       </c>
@@ -4395,8 +4619,11 @@
       <c r="H67" s="11" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>354</v>
       </c>
@@ -4421,8 +4648,11 @@
       <c r="H68" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>355</v>
       </c>
@@ -4447,8 +4677,11 @@
       <c r="H69" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>431</v>
       </c>
@@ -4473,8 +4706,11 @@
       <c r="H70" s="9" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>432</v>
       </c>
@@ -4499,8 +4735,11 @@
       <c r="H71" s="9" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>442</v>
       </c>
@@ -4525,8 +4764,11 @@
       <c r="H72" s="9" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>356</v>
       </c>
@@ -4551,8 +4793,11 @@
       <c r="H73" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>569</v>
       </c>
@@ -4577,8 +4822,11 @@
       <c r="H74" s="9" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>357</v>
       </c>
@@ -4603,8 +4851,11 @@
       <c r="H75" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>358</v>
       </c>
@@ -4629,8 +4880,11 @@
       <c r="H76" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>359</v>
       </c>
@@ -4655,8 +4909,11 @@
       <c r="H77" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>448</v>
       </c>
@@ -4681,8 +4938,11 @@
       <c r="H78" s="11" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>450</v>
       </c>
@@ -4707,8 +4967,11 @@
       <c r="H79" s="11" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>445</v>
       </c>
@@ -4731,8 +4994,11 @@
         <v>1</v>
       </c>
       <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>713</v>
       </c>
@@ -4757,8 +5023,11 @@
       <c r="H81" s="11" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>496</v>
       </c>
@@ -4783,8 +5052,11 @@
       <c r="H82" s="11" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>499</v>
       </c>
@@ -4809,8 +5081,11 @@
       <c r="H83" s="11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>500</v>
       </c>
@@ -4835,8 +5110,11 @@
       <c r="H84" s="11" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>562</v>
       </c>
@@ -4861,8 +5139,11 @@
       <c r="H85" s="11" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>564</v>
       </c>
@@ -4887,8 +5168,11 @@
       <c r="H86" s="11" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>717</v>
       </c>
@@ -4913,8 +5197,11 @@
       <c r="H87" s="11" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>360</v>
       </c>
@@ -4939,8 +5226,11 @@
       <c r="H88" s="13" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>361</v>
       </c>
@@ -4965,8 +5255,11 @@
       <c r="H89" s="13" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>362</v>
       </c>
@@ -4991,8 +5284,11 @@
       <c r="H90" s="13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>363</v>
       </c>
@@ -5017,8 +5313,11 @@
       <c r="H91" s="13" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>364</v>
       </c>
@@ -5043,8 +5342,11 @@
       <c r="H92" s="13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>365</v>
       </c>
@@ -5069,8 +5371,11 @@
       <c r="H93" s="13" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>366</v>
       </c>
@@ -5095,8 +5400,11 @@
       <c r="H94" s="13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>367</v>
       </c>
@@ -5121,8 +5429,11 @@
       <c r="H95" s="13" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>368</v>
       </c>
@@ -5147,8 +5458,11 @@
       <c r="H96" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>369</v>
       </c>
@@ -5173,8 +5487,11 @@
       <c r="H97" s="13" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>370</v>
       </c>
@@ -5199,8 +5516,11 @@
       <c r="H98" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>371</v>
       </c>
@@ -5225,8 +5545,11 @@
       <c r="H99" s="13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>372</v>
       </c>
@@ -5251,8 +5574,11 @@
       <c r="H100" s="13" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>373</v>
       </c>
@@ -5277,8 +5603,11 @@
       <c r="H101" s="13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>374</v>
       </c>
@@ -5303,8 +5632,11 @@
       <c r="H102" s="13" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>375</v>
       </c>
@@ -5329,8 +5661,11 @@
       <c r="H103" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>376</v>
       </c>
@@ -5355,8 +5690,11 @@
       <c r="H104" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>377</v>
       </c>
@@ -5381,8 +5719,11 @@
       <c r="H105" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>378</v>
       </c>
@@ -5407,8 +5748,11 @@
       <c r="H106" s="13" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>379</v>
       </c>
@@ -5433,8 +5777,11 @@
       <c r="H107" s="13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>380</v>
       </c>
@@ -5459,8 +5806,11 @@
       <c r="H108" s="13" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>381</v>
       </c>
@@ -5485,8 +5835,11 @@
       <c r="H109" s="13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>382</v>
       </c>
@@ -5511,8 +5864,11 @@
       <c r="H110" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>383</v>
       </c>
@@ -5537,8 +5893,11 @@
       <c r="H111" s="13" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>384</v>
       </c>
@@ -5563,8 +5922,11 @@
       <c r="H112" s="13" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>385</v>
       </c>
@@ -5589,8 +5951,11 @@
       <c r="H113" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>386</v>
       </c>
@@ -5615,8 +5980,11 @@
       <c r="H114" s="13" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>387</v>
       </c>
@@ -5641,8 +6009,11 @@
       <c r="H115" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>388</v>
       </c>
@@ -5667,8 +6038,11 @@
       <c r="H116" s="13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>534</v>
       </c>
@@ -5693,8 +6067,11 @@
       <c r="H117" s="14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
         <v>573</v>
       </c>
@@ -5719,8 +6096,11 @@
       <c r="H118" s="22" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
         <v>571</v>
       </c>
@@ -5745,8 +6125,11 @@
       <c r="H119" s="22" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>389</v>
       </c>
@@ -5771,8 +6154,11 @@
       <c r="H120" s="14" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>390</v>
       </c>
@@ -5797,8 +6183,11 @@
       <c r="H121" s="14" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>391</v>
       </c>
@@ -5823,8 +6212,11 @@
       <c r="H122" s="14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>392</v>
       </c>
@@ -5849,8 +6241,11 @@
       <c r="H123" s="14" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>393</v>
       </c>
@@ -5875,8 +6270,11 @@
       <c r="H124" s="14" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>394</v>
       </c>
@@ -5901,8 +6299,11 @@
       <c r="H125" s="14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>395</v>
       </c>
@@ -5927,8 +6328,11 @@
       <c r="H126" s="14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>396</v>
       </c>
@@ -5953,8 +6357,11 @@
       <c r="H127" s="14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>397</v>
       </c>
@@ -5979,8 +6386,11 @@
       <c r="H128" s="14" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>398</v>
       </c>
@@ -6005,8 +6415,11 @@
       <c r="H129" s="14" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>399</v>
       </c>
@@ -6031,8 +6444,11 @@
       <c r="H130" s="14" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>400</v>
       </c>
@@ -6057,8 +6473,11 @@
       <c r="H131" s="14" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>401</v>
       </c>
@@ -6083,8 +6502,11 @@
       <c r="H132" s="14" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>402</v>
       </c>
@@ -6109,8 +6531,11 @@
       <c r="H133" s="14" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I133" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>403</v>
       </c>
@@ -6135,8 +6560,11 @@
       <c r="H134" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>404</v>
       </c>
@@ -6161,8 +6589,11 @@
       <c r="H135" s="14" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>405</v>
       </c>
@@ -6187,8 +6618,11 @@
       <c r="H136" s="14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>406</v>
       </c>
@@ -6213,8 +6647,11 @@
       <c r="H137" s="14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>407</v>
       </c>
@@ -6239,8 +6676,11 @@
       <c r="H138" s="14" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>408</v>
       </c>
@@ -6265,8 +6705,11 @@
       <c r="H139" s="14" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>409</v>
       </c>
@@ -6291,8 +6734,11 @@
       <c r="H140" s="14" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>410</v>
       </c>
@@ -6317,8 +6763,11 @@
       <c r="H141" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>411</v>
       </c>
@@ -6343,8 +6792,11 @@
       <c r="H142" s="14" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>412</v>
       </c>
@@ -6369,8 +6821,11 @@
       <c r="H143" s="14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>413</v>
       </c>
@@ -6395,8 +6850,11 @@
       <c r="H144" s="14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>414</v>
       </c>
@@ -6421,8 +6879,11 @@
       <c r="H145" s="14" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>415</v>
       </c>
@@ -6447,8 +6908,11 @@
       <c r="H146" s="14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>416</v>
       </c>
@@ -6473,8 +6937,11 @@
       <c r="H147" s="14" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>417</v>
       </c>
@@ -6499,8 +6966,11 @@
       <c r="H148" s="14" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>418</v>
       </c>
@@ -6525,8 +6995,11 @@
       <c r="H149" s="14" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>419</v>
       </c>
@@ -6551,8 +7024,11 @@
       <c r="H150" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>420</v>
       </c>
@@ -6577,8 +7053,11 @@
       <c r="H151" s="14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>421</v>
       </c>
@@ -6603,8 +7082,11 @@
       <c r="H152" s="14" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
         <v>422</v>
       </c>
@@ -6629,8 +7111,11 @@
       <c r="H153" s="26" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
         <v>663</v>
       </c>
@@ -6655,8 +7140,11 @@
       <c r="H154" s="26" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
         <v>423</v>
       </c>
@@ -6681,8 +7169,11 @@
       <c r="H155" s="26" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
         <v>706</v>
       </c>
@@ -6707,8 +7198,11 @@
       <c r="H156" s="26" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
         <v>707</v>
       </c>
@@ -6733,8 +7227,11 @@
       <c r="H157" s="26" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>708</v>
       </c>
@@ -6759,8 +7256,11 @@
       <c r="H158" s="26" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
         <v>709</v>
       </c>
@@ -6785,8 +7285,11 @@
       <c r="H159" s="26" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
         <v>710</v>
       </c>
@@ -6811,8 +7314,11 @@
       <c r="H160" s="25" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
         <v>711</v>
       </c>
@@ -6837,8 +7343,11 @@
       <c r="H161" s="25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
         <v>712</v>
       </c>
@@ -6863,8 +7372,11 @@
       <c r="H162" s="25" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>530</v>
       </c>
@@ -6889,8 +7401,11 @@
       <c r="H163" s="14" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>424</v>
       </c>
@@ -6915,8 +7430,11 @@
       <c r="H164" s="14" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>425</v>
       </c>
@@ -6941,8 +7459,11 @@
       <c r="H165" s="14" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>535</v>
       </c>
@@ -6967,8 +7488,11 @@
       <c r="H166" s="14" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>426</v>
       </c>
@@ -6993,8 +7517,11 @@
       <c r="H167" s="14" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>665</v>
       </c>
@@ -7019,8 +7546,11 @@
       <c r="H168" s="14" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>576</v>
       </c>
@@ -7045,8 +7575,11 @@
       <c r="H169" s="15" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>579</v>
       </c>
@@ -7071,8 +7604,11 @@
       <c r="H170" s="15" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
         <v>582</v>
       </c>
@@ -7097,8 +7633,11 @@
       <c r="H171" s="15" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>585</v>
       </c>
@@ -7123,8 +7662,11 @@
       <c r="H172" s="15" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
         <v>588</v>
       </c>
@@ -7149,8 +7691,11 @@
       <c r="H173" s="15" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>591</v>
       </c>
@@ -7175,8 +7720,11 @@
       <c r="H174" s="15" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>672</v>
       </c>
@@ -7201,8 +7749,11 @@
       <c r="H175" s="15" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>594</v>
       </c>
@@ -7227,8 +7778,11 @@
       <c r="H176" s="15" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>597</v>
       </c>
@@ -7253,8 +7807,11 @@
       <c r="H177" s="15" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>600</v>
       </c>
@@ -7279,8 +7836,11 @@
       <c r="H178" s="15" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>668</v>
       </c>
@@ -7305,8 +7865,11 @@
       <c r="H179" s="15" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>603</v>
       </c>
@@ -7331,8 +7894,11 @@
       <c r="H180" s="15" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
         <v>606</v>
       </c>
@@ -7357,8 +7923,11 @@
       <c r="H181" s="15" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>608</v>
       </c>
@@ -7383,8 +7952,11 @@
       <c r="H182" s="15" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
         <v>611</v>
       </c>
@@ -7409,8 +7981,11 @@
       <c r="H183" s="15" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
         <v>675</v>
       </c>
@@ -7435,8 +8010,11 @@
       <c r="H184" s="14" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
         <v>678</v>
       </c>
@@ -7461,8 +8039,11 @@
       <c r="H185" s="14" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>681</v>
       </c>
@@ -7487,8 +8068,11 @@
       <c r="H186" s="15" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
         <v>682</v>
       </c>
@@ -7513,8 +8097,11 @@
       <c r="H187" s="15" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>687</v>
       </c>
@@ -7539,8 +8126,11 @@
       <c r="H188" s="14" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
         <v>690</v>
       </c>
@@ -7565,8 +8155,11 @@
       <c r="H189" s="14" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
         <v>693</v>
       </c>
@@ -7591,8 +8184,11 @@
       <c r="H190" s="14" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>427</v>
       </c>
@@ -7617,8 +8213,11 @@
       <c r="H191" s="14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>428</v>
       </c>
@@ -7643,8 +8242,11 @@
       <c r="H192" s="14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="27" t="s">
         <v>512</v>
       </c>
@@ -7669,8 +8271,11 @@
       <c r="H193" s="27" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
         <v>513</v>
       </c>
@@ -7695,8 +8300,11 @@
       <c r="H194" s="27" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="27" t="s">
         <v>514</v>
       </c>
@@ -7721,8 +8329,11 @@
       <c r="H195" s="27" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="27" t="s">
         <v>515</v>
       </c>
@@ -7747,8 +8358,11 @@
       <c r="H196" s="27" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="s">
         <v>516</v>
       </c>
@@ -7773,8 +8387,11 @@
       <c r="H197" s="27" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="27" t="s">
         <v>517</v>
       </c>
@@ -7799,8 +8416,11 @@
       <c r="H198" s="27" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="s">
         <v>518</v>
       </c>
@@ -7825,8 +8445,11 @@
       <c r="H199" s="27" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="s">
         <v>519</v>
       </c>
@@ -7851,8 +8474,11 @@
       <c r="H200" s="27" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="s">
         <v>520</v>
       </c>
@@ -7877,8 +8503,11 @@
       <c r="H201" s="27" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="s">
         <v>521</v>
       </c>
@@ -7903,8 +8532,11 @@
       <c r="H202" s="27" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="s">
         <v>522</v>
       </c>
@@ -7929,8 +8561,11 @@
       <c r="H203" s="27" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="27" t="s">
         <v>523</v>
       </c>
@@ -7955,8 +8590,11 @@
       <c r="H204" s="27" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="s">
         <v>524</v>
       </c>
@@ -7981,8 +8619,11 @@
       <c r="H205" s="27" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="s">
         <v>525</v>
       </c>
@@ -8007,8 +8648,11 @@
       <c r="H206" s="27" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="s">
         <v>526</v>
       </c>
@@ -8033,8 +8677,11 @@
       <c r="H207" s="27" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="27" t="s">
         <v>527</v>
       </c>
@@ -8059,8 +8706,11 @@
       <c r="H208" s="27" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="s">
         <v>528</v>
       </c>
@@ -8085,8 +8735,11 @@
       <c r="H209" s="27" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="s">
         <v>529</v>
       </c>
@@ -8111,8 +8764,11 @@
       <c r="H210" s="27" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="27" t="s">
         <v>715</v>
       </c>
@@ -8137,8 +8793,11 @@
       <c r="H211" s="27" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
         <v>716</v>
       </c>
@@ -8163,8 +8822,11 @@
       <c r="H212" s="27" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="25" t="s">
         <v>618</v>
       </c>
@@ -8189,8 +8851,11 @@
       <c r="H213" s="25" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
         <v>619</v>
       </c>
@@ -8215,8 +8880,11 @@
       <c r="H214" s="25" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
         <v>617</v>
       </c>
@@ -8241,8 +8909,11 @@
       <c r="H215" s="25" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
         <v>616</v>
       </c>
@@ -8267,8 +8938,11 @@
       <c r="H216" s="25" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
         <v>620</v>
       </c>
@@ -8293,8 +8967,11 @@
       <c r="H217" s="25" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
         <v>621</v>
       </c>
@@ -8319,8 +8996,11 @@
       <c r="H218" s="25" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
         <v>622</v>
       </c>
@@ -8345,8 +9025,11 @@
       <c r="H219" s="25" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
         <v>623</v>
       </c>
@@ -8371,8 +9054,11 @@
       <c r="H220" s="25" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
         <v>624</v>
       </c>
@@ -8397,8 +9083,11 @@
       <c r="H221" s="25" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
         <v>625</v>
       </c>
@@ -8423,8 +9112,11 @@
       <c r="H222" s="25" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
         <v>626</v>
       </c>
@@ -8449,8 +9141,11 @@
       <c r="H223" s="25" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
         <v>627</v>
       </c>
@@ -8475,8 +9170,11 @@
       <c r="H224" s="25" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
         <v>628</v>
       </c>
@@ -8501,8 +9199,11 @@
       <c r="H225" s="25" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
         <v>629</v>
       </c>
@@ -8527,8 +9228,11 @@
       <c r="H226" s="25" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
         <v>630</v>
       </c>
@@ -8553,8 +9257,11 @@
       <c r="H227" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
         <v>631</v>
       </c>
@@ -8579,8 +9286,11 @@
       <c r="H228" s="25" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
         <v>632</v>
       </c>
@@ -8605,8 +9315,11 @@
       <c r="H229" s="14" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
         <v>633</v>
       </c>
@@ -8631,8 +9344,11 @@
       <c r="H230" s="14" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
         <v>634</v>
       </c>
@@ -8657,8 +9373,11 @@
       <c r="H231" s="14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
         <v>635</v>
       </c>
@@ -8683,8 +9402,11 @@
       <c r="H232" s="14" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
         <v>636</v>
       </c>
@@ -8709,8 +9431,11 @@
       <c r="H233" s="14" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
         <v>637</v>
       </c>
@@ -8735,8 +9460,11 @@
       <c r="H234" s="14" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
         <v>642</v>
       </c>
@@ -8761,8 +9489,11 @@
       <c r="H235" s="14" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
         <v>699</v>
       </c>
@@ -8787,8 +9518,11 @@
       <c r="H236" s="14" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
         <v>701</v>
       </c>
@@ -8813,8 +9547,11 @@
       <c r="H237" s="14" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
         <v>638</v>
       </c>
@@ -8839,8 +9576,11 @@
       <c r="H238" s="14" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
         <v>639</v>
       </c>
@@ -8865,8 +9605,11 @@
       <c r="H239" s="14" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I239" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
         <v>640</v>
       </c>
@@ -8891,8 +9634,11 @@
       <c r="H240" s="14" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I240" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
         <v>641</v>
       </c>
@@ -8917,8 +9663,11 @@
       <c r="H241" s="14" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I241" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>643</v>
       </c>
@@ -8943,8 +9692,11 @@
       <c r="H242" s="15" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I242" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>644</v>
       </c>
@@ -8969,8 +9721,11 @@
       <c r="H243" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I243" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>645</v>
       </c>
@@ -8995,8 +9750,11 @@
       <c r="H244" s="15" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I244" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
         <v>646</v>
       </c>
@@ -9021,8 +9779,11 @@
       <c r="H245" s="15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I245" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>647</v>
       </c>
@@ -9047,8 +9808,11 @@
       <c r="H246" s="15" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I246" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>648</v>
       </c>
@@ -9073,8 +9837,11 @@
       <c r="H247" s="15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I247" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>649</v>
       </c>
@@ -9099,8 +9866,11 @@
       <c r="H248" s="15" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I248" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
         <v>650</v>
       </c>
@@ -9125,8 +9895,11 @@
       <c r="H249" s="15" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I249" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>553</v>
       </c>
@@ -9151,9 +9924,12 @@
       <c r="H250" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="I250" s="3" t="s">
+        <v>724</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="732">
   <si>
     <t>old</t>
   </si>
@@ -2211,6 +2211,15 @@
   </si>
   <si>
     <t>col_double()</t>
+  </si>
+  <si>
+    <t>crfs-t02b-contact_start</t>
+  </si>
+  <si>
+    <t>start_contact</t>
+  </si>
+  <si>
+    <t>contact_start</t>
   </si>
 </sst>
 </file>
@@ -2659,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O250"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2914,16 +2923,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>549</v>
+        <v>729</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>549</v>
+        <v>730</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2932,21 +2941,21 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2964,18 +2973,18 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2996,44 +3005,44 @@
         <v>537</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -3051,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>728</v>
@@ -3059,10 +3068,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -3080,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>728</v>
@@ -3088,10 +3097,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -3109,76 +3118,76 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B17" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>651</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>652</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3196,18 +3205,18 @@
         <v>1</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>315</v>
+      <c r="A19" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>653</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -3224,95 +3233,95 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>315</v>
+      <c r="H19" s="23" t="s">
+        <v>654</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>430</v>
+        <v>317</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>725</v>
@@ -3320,16 +3329,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>318</v>
+        <v>430</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -3341,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>165</v>
+        <v>430</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>725</v>
@@ -3349,10 +3358,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -3370,24 +3379,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>440</v>
+      <c r="A25" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -3398,19 +3407,19 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>439</v>
+      <c r="H25" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>9</v>
+        <v>440</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -3425,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>166</v>
+        <v>439</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>723</v>
@@ -3436,10 +3445,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -3454,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>723</v>
@@ -3465,16 +3474,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -3483,10 +3492,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>723</v>
@@ -3494,16 +3503,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>436</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -3512,10 +3521,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>436</v>
+        <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>723</v>
@@ -3523,10 +3532,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3544,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>170</v>
+        <v>436</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>723</v>
@@ -3552,10 +3561,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3573,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>723</v>
@@ -3581,16 +3590,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -3599,10 +3608,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>723</v>
@@ -3610,57 +3619,57 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11" t="s">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="17">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="18">
-        <v>1</v>
-      </c>
-      <c r="F34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>173</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>723</v>
@@ -3668,10 +3677,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="17">
         <v>1</v>
@@ -3679,17 +3688,17 @@
       <c r="D35" s="17">
         <v>0</v>
       </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17">
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
         <v>1</v>
       </c>
       <c r="G35" s="19">
         <v>1</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>723</v>
@@ -3697,28 +3706,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C36" s="17">
         <v>1</v>
       </c>
       <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="18">
-        <v>1</v>
-      </c>
-      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17">
         <v>1</v>
       </c>
       <c r="G36" s="19">
         <v>1</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>723</v>
@@ -3726,28 +3735,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
+        <v>8</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1</v>
+      </c>
+      <c r="G37" s="19">
         <v>1</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>175</v>
+        <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>723</v>
@@ -3755,16 +3764,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -3773,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>723</v>
@@ -3784,16 +3793,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -3802,10 +3811,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>723</v>
@@ -3813,10 +3822,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3834,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>723</v>
@@ -3842,57 +3851,57 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B42" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="24" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>723</v>
@@ -3900,10 +3909,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3918,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>723</v>
@@ -3929,10 +3938,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3950,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>723</v>
@@ -3958,10 +3967,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3979,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>723</v>
@@ -3987,115 +3996,115 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="12" t="s">
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="I47" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="I48" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>723</v>
@@ -4103,10 +4112,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -4124,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>723</v>
@@ -4132,10 +4141,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -4153,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>723</v>
@@ -4161,10 +4170,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -4179,10 +4188,10 @@
         <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>723</v>
@@ -4190,10 +4199,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -4211,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>723</v>
@@ -4219,10 +4228,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -4240,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>723</v>
@@ -4248,19 +4257,19 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -4269,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>723</v>
@@ -4277,57 +4286,57 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>723</v>
@@ -4335,10 +4344,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>556</v>
+        <v>348</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>558</v>
+        <v>29</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -4353,21 +4362,21 @@
         <v>1</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>559</v>
+        <v>194</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -4385,18 +4394,18 @@
         <v>1</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>31</v>
+      <c r="A60" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -4413,8 +4422,8 @@
       <c r="G60" s="3">
         <v>1</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>195</v>
+      <c r="H60" s="6" t="s">
+        <v>560</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>724</v>
@@ -4422,68 +4431,68 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="7" t="s">
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="I62" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4501,18 +4510,18 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>42</v>
+      <c r="A64" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4521,45 +4530,45 @@
         <v>1</v>
       </c>
       <c r="E64" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>198</v>
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>660</v>
+        <v>353</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>661</v>
+        <v>42</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>662</v>
+        <v>198</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>723</v>
@@ -4567,28 +4576,28 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>507</v>
+        <v>660</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>505</v>
+        <v>661</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>506</v>
+        <v>662</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>723</v>
@@ -4596,57 +4605,57 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>657</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>723</v>
@@ -4654,10 +4663,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -4675,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>723</v>
@@ -4683,10 +4692,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -4704,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>433</v>
+        <v>200</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>723</v>
@@ -4712,10 +4721,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -4733,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>723</v>
@@ -4741,10 +4750,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -4762,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>723</v>
@@ -4770,10 +4779,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -4791,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>201</v>
+        <v>444</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>569</v>
+        <v>356</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>567</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -4820,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>568</v>
+        <v>201</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>724</v>
@@ -4828,10 +4837,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>357</v>
+        <v>569</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>41</v>
+        <v>567</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4849,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>204</v>
+        <v>568</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>724</v>
@@ -4857,10 +4866,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -4878,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>724</v>
@@ -4886,10 +4895,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -4907,36 +4916,36 @@
         <v>0</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>449</v>
+      <c r="A78" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
       </c>
       <c r="E78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>449</v>
+        <v>0</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>724</v>
@@ -4944,10 +4953,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -4965,21 +4974,21 @@
         <v>1</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>447</v>
+      <c r="A80" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
@@ -4988,22 +4997,24 @@
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="11"/>
+      <c r="H80" s="11" t="s">
+        <v>451</v>
+      </c>
       <c r="I80" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>713</v>
+        <v>445</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>714</v>
+        <v>447</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -5020,19 +5031,17 @@
       <c r="G81" s="3">
         <v>1</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>446</v>
-      </c>
+      <c r="H81" s="11"/>
       <c r="I81" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>496</v>
+        <v>713</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>497</v>
+        <v>714</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -5050,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>723</v>
@@ -5058,10 +5067,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -5079,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>723</v>
@@ -5087,10 +5096,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -5108,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>723</v>
@@ -5116,13 +5125,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>562</v>
+        <v>500</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
@@ -5137,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>723</v>
@@ -5145,39 +5154,39 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
       <c r="E86" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>717</v>
+        <v>564</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>718</v>
+        <v>565</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -5195,55 +5204,55 @@
         <v>0</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>719</v>
+        <v>566</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>51</v>
+      <c r="A88" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>718</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="4">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>719</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C89" s="17">
-        <v>0</v>
-      </c>
-      <c r="D89" s="17">
-        <v>0</v>
-      </c>
-      <c r="E89" s="18">
+        <v>51</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -5253,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>723</v>
@@ -5261,10 +5270,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="17">
         <v>0</v>
@@ -5272,7 +5281,7 @@
       <c r="D90" s="17">
         <v>0</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="18">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -5282,18 +5291,18 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
@@ -5301,7 +5310,7 @@
       <c r="D91" s="17">
         <v>0</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="17">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -5311,18 +5320,18 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92" s="17">
         <v>0</v>
@@ -5340,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>723</v>
@@ -5348,18 +5357,18 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="4">
+        <v>55</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="17">
+        <v>0</v>
+      </c>
+      <c r="E93" s="18">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -5369,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>723</v>
@@ -5377,10 +5386,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -5398,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>723</v>
@@ -5406,10 +5415,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -5427,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>723</v>
@@ -5435,10 +5444,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -5456,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>723</v>
@@ -5464,10 +5473,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -5485,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>723</v>
@@ -5493,10 +5502,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -5514,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>723</v>
@@ -5522,10 +5531,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -5543,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>723</v>
@@ -5551,10 +5560,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -5572,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>723</v>
@@ -5580,10 +5589,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -5601,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>723</v>
@@ -5609,10 +5618,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5630,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>723</v>
@@ -5638,10 +5647,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5659,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>723</v>
@@ -5667,10 +5676,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5688,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>723</v>
@@ -5696,10 +5705,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5717,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>723</v>
@@ -5725,10 +5734,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5746,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>723</v>
@@ -5754,10 +5763,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5775,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>723</v>
@@ -5783,18 +5792,18 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="17">
+        <v>70</v>
+      </c>
+      <c r="C108" s="2">
         <v>0</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="4">
         <v>1</v>
       </c>
       <c r="F108" s="3">
@@ -5804,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>723</v>
@@ -5812,10 +5821,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C109" s="17">
         <v>0</v>
@@ -5823,7 +5832,7 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="18">
         <v>1</v>
       </c>
       <c r="F109" s="3">
@@ -5833,18 +5842,18 @@
         <v>1</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C110" s="17">
         <v>0</v>
@@ -5852,7 +5861,7 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="17">
         <v>1</v>
       </c>
       <c r="F110" s="3">
@@ -5862,18 +5871,18 @@
         <v>1</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C111" s="17">
         <v>0</v>
@@ -5891,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>723</v>
@@ -5899,10 +5908,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C112" s="17">
         <v>0</v>
@@ -5910,7 +5919,7 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="18">
         <v>1</v>
       </c>
       <c r="F112" s="3">
@@ -5920,18 +5929,18 @@
         <v>1</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C113" s="17">
         <v>0</v>
@@ -5939,7 +5948,7 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="17">
         <v>1</v>
       </c>
       <c r="F113" s="3">
@@ -5949,18 +5958,18 @@
         <v>1</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114" s="17">
         <v>0</v>
@@ -5978,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>723</v>
@@ -5986,12 +5995,12 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C115" s="2">
+        <v>77</v>
+      </c>
+      <c r="C115" s="17">
         <v>0</v>
       </c>
       <c r="D115" s="2">
@@ -6007,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>723</v>
@@ -6015,86 +6024,86 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B117" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="2">
-        <v>0</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="3">
-        <v>1</v>
-      </c>
-      <c r="H116" s="13" t="s">
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="14" t="s">
+      <c r="I117" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B118" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="2">
-        <v>0</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
-      <c r="E117" s="17">
-        <v>1</v>
-      </c>
-      <c r="F117" s="19">
-        <v>1</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
-      </c>
-      <c r="H117" s="14" t="s">
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="17">
+        <v>1</v>
+      </c>
+      <c r="F118" s="19">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="14" t="s">
         <v>276</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="B118" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="22" t="s">
-        <v>575</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>723</v>
@@ -6102,57 +6111,57 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B120" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>1</v>
-      </c>
-      <c r="E119" s="4">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="3">
-        <v>0</v>
-      </c>
-      <c r="H119" s="22" t="s">
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="22" t="s">
         <v>570</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" s="2">
-        <v>0</v>
-      </c>
-      <c r="D120" s="2">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3">
-        <v>1</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1</v>
-      </c>
-      <c r="H120" s="14" t="s">
-        <v>215</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>723</v>
@@ -6160,10 +6169,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -6178,10 +6187,10 @@
         <v>1</v>
       </c>
       <c r="G121" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>723</v>
@@ -6189,10 +6198,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -6210,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>723</v>
@@ -6218,10 +6227,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -6239,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>723</v>
@@ -6247,10 +6256,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -6268,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>723</v>
@@ -6276,10 +6285,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -6297,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>723</v>
@@ -6305,10 +6314,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -6326,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>723</v>
@@ -6334,10 +6343,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -6355,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>723</v>
@@ -6363,10 +6372,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -6384,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>723</v>
@@ -6392,10 +6401,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -6413,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>723</v>
@@ -6421,10 +6430,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -6442,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>723</v>
@@ -6450,10 +6459,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -6471,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>723</v>
@@ -6479,10 +6488,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -6500,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>723</v>
@@ -6508,10 +6517,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -6529,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>723</v>
@@ -6537,10 +6546,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -6558,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>723</v>
@@ -6566,10 +6575,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -6587,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>723</v>
@@ -6595,10 +6604,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -6616,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>723</v>
@@ -6624,10 +6633,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -6642,10 +6651,10 @@
         <v>1</v>
       </c>
       <c r="G137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>723</v>
@@ -6653,10 +6662,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>98</v>
+        <v>406</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -6674,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>723</v>
@@ -6682,10 +6691,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6703,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>723</v>
@@ -6711,10 +6720,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6732,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>723</v>
@@ -6740,10 +6749,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6761,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>723</v>
@@ -6769,10 +6778,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6790,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>723</v>
@@ -6798,10 +6807,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6819,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>723</v>
@@ -6827,10 +6836,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6848,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>723</v>
@@ -6856,10 +6865,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6867,17 +6876,17 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="17">
-        <v>1</v>
-      </c>
-      <c r="F145" s="19">
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
         <v>1</v>
       </c>
       <c r="G145" s="3">
         <v>1</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>723</v>
@@ -6885,10 +6894,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6906,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>723</v>
@@ -6914,10 +6923,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6935,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>723</v>
@@ -6943,10 +6952,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6957,14 +6966,14 @@
       <c r="E148" s="17">
         <v>1</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148" s="19">
         <v>1</v>
       </c>
       <c r="G148" s="3">
         <v>1</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>723</v>
@@ -6972,10 +6981,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B149" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6986,14 +6995,14 @@
       <c r="E149" s="17">
         <v>1</v>
       </c>
-      <c r="F149" s="19">
+      <c r="F149" s="17">
         <v>1</v>
       </c>
       <c r="G149" s="3">
         <v>1</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>723</v>
@@ -7001,10 +7010,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -7022,7 +7031,7 @@
         <v>1</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>723</v>
@@ -7030,10 +7039,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -7051,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="H151" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>723</v>
@@ -7059,57 +7068,57 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="17">
+        <v>1</v>
+      </c>
+      <c r="F152" s="19">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B153" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="17">
-        <v>1</v>
-      </c>
-      <c r="F152" s="17">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>1</v>
-      </c>
-      <c r="H152" s="14" t="s">
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="17">
+        <v>1</v>
+      </c>
+      <c r="F153" s="17">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>1</v>
+      </c>
+      <c r="H153" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="17">
-        <v>1</v>
-      </c>
-      <c r="F153" s="19">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3">
-        <v>1</v>
-      </c>
-      <c r="H153" s="26" t="s">
-        <v>269</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>723</v>
@@ -7117,10 +7126,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
-        <v>663</v>
+        <v>422</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>705</v>
+        <v>113</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -7138,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="H154" s="26" t="s">
-        <v>664</v>
+        <v>269</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>723</v>
@@ -7146,10 +7155,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
-        <v>423</v>
+        <v>663</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>114</v>
+        <v>705</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -7164,10 +7173,10 @@
         <v>1</v>
       </c>
       <c r="G155" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>114</v>
+        <v>664</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>723</v>
@@ -7175,10 +7184,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
-        <v>706</v>
+        <v>423</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -7193,10 +7202,10 @@
         <v>1</v>
       </c>
       <c r="G156" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>723</v>
@@ -7204,10 +7213,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>704</v>
+        <v>123</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -7225,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>698</v>
+        <v>279</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>723</v>
@@ -7233,10 +7242,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -7254,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="26" t="s">
-        <v>509</v>
+        <v>698</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>723</v>
@@ -7262,57 +7271,57 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="17">
+        <v>1</v>
+      </c>
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B160" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="17">
-        <v>1</v>
-      </c>
-      <c r="F159" s="19">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>1</v>
-      </c>
-      <c r="H159" s="26" t="s">
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="17">
+        <v>1</v>
+      </c>
+      <c r="F160" s="19">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H160" s="26" t="s">
         <v>511</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="17">
-        <v>1</v>
-      </c>
-      <c r="F160" s="19">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="25" t="s">
-        <v>270</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>723</v>
@@ -7320,10 +7329,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
-        <v>711</v>
-      </c>
-      <c r="B161" s="28" t="s">
-        <v>124</v>
+        <v>710</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -7341,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>723</v>
@@ -7349,57 +7358,57 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B162" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="17">
+        <v>1</v>
+      </c>
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="B162" s="28" t="s">
+      <c r="B163" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="17">
-        <v>1</v>
-      </c>
-      <c r="F162" s="19">
-        <v>1</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="25" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="17">
+        <v>1</v>
+      </c>
+      <c r="F163" s="19">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="25" t="s">
         <v>281</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="17">
-        <v>1</v>
-      </c>
-      <c r="F163" s="19">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="14" t="s">
-        <v>533</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>723</v>
@@ -7407,10 +7416,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -7428,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>271</v>
+        <v>533</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>723</v>
@@ -7436,10 +7445,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -7450,14 +7459,14 @@
       <c r="E165" s="17">
         <v>1</v>
       </c>
-      <c r="F165" s="17">
+      <c r="F165" s="19">
         <v>1</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>723</v>
@@ -7465,10 +7474,10 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>535</v>
+        <v>425</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>531</v>
+        <v>118</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -7479,14 +7488,14 @@
       <c r="E166" s="17">
         <v>1</v>
       </c>
-      <c r="F166" s="19">
+      <c r="F166" s="17">
         <v>1</v>
       </c>
       <c r="G166" s="3">
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>532</v>
+        <v>272</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>723</v>
@@ -7494,10 +7503,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>119</v>
+        <v>531</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -7515,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>723</v>
@@ -7523,57 +7532,57 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="17">
+        <v>1</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B169" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="17">
-        <v>1</v>
-      </c>
-      <c r="F168" s="19">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="14" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="17">
+        <v>1</v>
+      </c>
+      <c r="F169" s="19">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>666</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="17">
-        <v>1</v>
-      </c>
-      <c r="F169" s="17">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>578</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>723</v>
@@ -7581,10 +7590,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -7602,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="15" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>723</v>
@@ -7610,10 +7619,10 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -7631,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>723</v>
@@ -7639,10 +7648,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7660,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="15" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>723</v>
@@ -7668,10 +7677,10 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -7689,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>723</v>
@@ -7697,10 +7706,10 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -7718,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>723</v>
@@ -7726,10 +7735,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>673</v>
+        <v>592</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7747,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>674</v>
+        <v>593</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>723</v>
@@ -7755,10 +7764,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7776,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>723</v>
@@ -7784,10 +7793,10 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7805,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>723</v>
@@ -7813,10 +7822,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7834,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>723</v>
@@ -7842,10 +7851,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>670</v>
+        <v>601</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7863,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>669</v>
+        <v>602</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>723</v>
@@ -7871,10 +7880,10 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
-        <v>603</v>
+        <v>668</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7892,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="H180" s="15" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="I180" s="3" t="s">
         <v>723</v>
@@ -7900,10 +7909,10 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>671</v>
+        <v>604</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7921,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="H181" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>723</v>
@@ -7929,10 +7938,10 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>609</v>
+        <v>671</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7950,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="H182" s="15" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I182" s="3" t="s">
         <v>723</v>
@@ -7958,57 +7967,57 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="17">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B184" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>1</v>
-      </c>
-      <c r="F183" s="17">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="15" t="s">
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="17">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="I183" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="B184" s="14" t="s">
-        <v>676</v>
-      </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>1</v>
-      </c>
-      <c r="F184" s="19">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="14" t="s">
-        <v>677</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>723</v>
@@ -8016,57 +8025,57 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>1</v>
+      </c>
+      <c r="F185" s="19">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="B186" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="17">
-        <v>1</v>
-      </c>
-      <c r="F185" s="19">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="14" t="s">
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>1</v>
+      </c>
+      <c r="F186" s="19">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="14" t="s">
         <v>680</v>
-      </c>
-      <c r="I185" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="B186" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="17">
-        <v>1</v>
-      </c>
-      <c r="F186" s="17">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>685</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>723</v>
@@ -8074,57 +8083,57 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="17">
+        <v>1</v>
+      </c>
+      <c r="F187" s="17">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B188" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="17">
-        <v>1</v>
-      </c>
-      <c r="F187" s="17">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="15" t="s">
+      <c r="C188" s="2">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
+      <c r="E188" s="17">
+        <v>1</v>
+      </c>
+      <c r="F188" s="17">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="15" t="s">
         <v>686</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="C188" s="2">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="17">
-        <v>1</v>
-      </c>
-      <c r="F188" s="19">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="14" t="s">
-        <v>689</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>723</v>
@@ -8132,10 +8141,10 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -8153,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I189" s="3" t="s">
         <v>723</v>
@@ -8161,10 +8170,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -8182,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>723</v>
@@ -8190,10 +8199,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
-        <v>427</v>
+        <v>693</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -8211,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>274</v>
+        <v>695</v>
       </c>
       <c r="I191" s="3" t="s">
         <v>723</v>
@@ -8219,57 +8228,57 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+      <c r="E192" s="17">
+        <v>1</v>
+      </c>
+      <c r="F192" s="19">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="B192" s="14" t="s">
+      <c r="B193" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="C192" s="2">
-        <v>0</v>
-      </c>
-      <c r="D192" s="2">
-        <v>0</v>
-      </c>
-      <c r="E192" s="17">
-        <v>1</v>
-      </c>
-      <c r="F192" s="19">
-        <v>1</v>
-      </c>
-      <c r="G192" s="3">
-        <v>0</v>
-      </c>
-      <c r="H192" s="14" t="s">
+      <c r="C193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0</v>
+      </c>
+      <c r="E193" s="17">
+        <v>1</v>
+      </c>
+      <c r="F193" s="19">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="I192" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="B193" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="C193" s="2">
-        <v>0</v>
-      </c>
-      <c r="D193" s="2">
-        <v>0</v>
-      </c>
-      <c r="E193" s="4">
-        <v>1</v>
-      </c>
-      <c r="F193" s="19">
-        <v>1</v>
-      </c>
-      <c r="G193" s="3">
-        <v>0</v>
-      </c>
-      <c r="H193" s="27" t="s">
-        <v>459</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>723</v>
@@ -8277,10 +8286,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -8298,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>723</v>
@@ -8306,10 +8315,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -8327,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>723</v>
@@ -8335,10 +8344,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -8356,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="H196" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I196" s="3" t="s">
         <v>723</v>
@@ -8364,10 +8373,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -8385,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>723</v>
@@ -8393,10 +8402,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -8414,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I198" s="3" t="s">
         <v>723</v>
@@ -8422,10 +8431,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -8443,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I199" s="3" t="s">
         <v>723</v>
@@ -8451,10 +8460,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -8472,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>723</v>
@@ -8480,10 +8489,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -8501,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I201" s="3" t="s">
         <v>723</v>
@@ -8509,10 +8518,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -8530,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I202" s="3" t="s">
         <v>723</v>
@@ -8538,10 +8547,10 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -8559,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I203" s="3" t="s">
         <v>723</v>
@@ -8567,10 +8576,10 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -8588,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I204" s="3" t="s">
         <v>723</v>
@@ -8596,10 +8605,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -8617,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I205" s="3" t="s">
         <v>723</v>
@@ -8625,10 +8634,10 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -8646,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>723</v>
@@ -8654,10 +8663,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -8675,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>723</v>
@@ -8683,10 +8692,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -8704,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>723</v>
@@ -8712,10 +8721,10 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -8733,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>723</v>
@@ -8741,10 +8750,10 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -8762,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I210" s="3" t="s">
         <v>723</v>
@@ -8770,10 +8779,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="27" t="s">
-        <v>715</v>
+        <v>529</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>121</v>
+        <v>493</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -8781,7 +8790,7 @@
       <c r="D211" s="2">
         <v>0</v>
       </c>
-      <c r="E211" s="17">
+      <c r="E211" s="4">
         <v>1</v>
       </c>
       <c r="F211" s="19">
@@ -8791,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="27" t="s">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="I211" s="3" t="s">
         <v>723</v>
@@ -8799,57 +8808,57 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="17">
+        <v>1</v>
+      </c>
+      <c r="F212" s="19">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="27" t="s">
         <v>716</v>
       </c>
-      <c r="B212" s="27" t="s">
+      <c r="B213" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="17">
-        <v>1</v>
-      </c>
-      <c r="F212" s="19">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="27" t="s">
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="17">
+        <v>1</v>
+      </c>
+      <c r="F213" s="19">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="27" t="s">
         <v>278</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="B213" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C213" s="2">
-        <v>0</v>
-      </c>
-      <c r="D213" s="2">
-        <v>0</v>
-      </c>
-      <c r="E213" s="17">
-        <v>1</v>
-      </c>
-      <c r="F213" s="19">
-        <v>1</v>
-      </c>
-      <c r="G213" s="3">
-        <v>0</v>
-      </c>
-      <c r="H213" s="25" t="s">
-        <v>282</v>
       </c>
       <c r="I213" s="3" t="s">
         <v>723</v>
@@ -8857,10 +8866,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -8878,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I214" s="3" t="s">
         <v>723</v>
@@ -8886,10 +8895,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -8904,10 +8913,10 @@
         <v>1</v>
       </c>
       <c r="G215" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I215" s="3" t="s">
         <v>723</v>
@@ -8915,10 +8924,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8936,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>723</v>
@@ -8944,10 +8953,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8962,10 +8971,10 @@
         <v>1</v>
       </c>
       <c r="G217" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>723</v>
@@ -8973,10 +8982,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8994,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>723</v>
@@ -9002,10 +9011,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -9023,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="H219" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>723</v>
@@ -9031,10 +9040,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -9052,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>723</v>
@@ -9060,10 +9069,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -9081,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>723</v>
@@ -9089,10 +9098,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -9110,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>723</v>
@@ -9118,10 +9127,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -9139,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>723</v>
@@ -9147,10 +9156,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -9168,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>723</v>
@@ -9176,10 +9185,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -9197,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>723</v>
@@ -9205,10 +9214,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
@@ -9226,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>723</v>
@@ -9234,10 +9243,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C227" s="2">
         <v>0</v>
@@ -9255,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="H227" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>723</v>
@@ -9263,57 +9272,57 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B228" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0</v>
+      </c>
+      <c r="E228" s="17">
+        <v>1</v>
+      </c>
+      <c r="F228" s="19">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="B228" s="25" t="s">
+      <c r="B229" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C228" s="2">
-        <v>0</v>
-      </c>
-      <c r="D228" s="2">
-        <v>0</v>
-      </c>
-      <c r="E228" s="17">
-        <v>1</v>
-      </c>
-      <c r="F228" s="19">
-        <v>1</v>
-      </c>
-      <c r="G228" s="3">
-        <v>0</v>
-      </c>
-      <c r="H228" s="25" t="s">
+      <c r="C229" s="2">
+        <v>0</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0</v>
+      </c>
+      <c r="E229" s="17">
+        <v>1</v>
+      </c>
+      <c r="F229" s="19">
+        <v>1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0</v>
+      </c>
+      <c r="H229" s="25" t="s">
         <v>297</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C229" s="2">
-        <v>0</v>
-      </c>
-      <c r="D229" s="2">
-        <v>0</v>
-      </c>
-      <c r="E229" s="17">
-        <v>1</v>
-      </c>
-      <c r="F229" s="19">
-        <v>1</v>
-      </c>
-      <c r="G229" s="3">
-        <v>0</v>
-      </c>
-      <c r="H229" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="I229" s="3" t="s">
         <v>723</v>
@@ -9321,10 +9330,10 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -9335,14 +9344,14 @@
       <c r="E230" s="17">
         <v>1</v>
       </c>
-      <c r="F230" s="17">
+      <c r="F230" s="19">
         <v>1</v>
       </c>
       <c r="G230" s="3">
         <v>0</v>
       </c>
       <c r="H230" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>723</v>
@@ -9350,10 +9359,10 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -9364,14 +9373,14 @@
       <c r="E231" s="17">
         <v>1</v>
       </c>
-      <c r="F231" s="19">
+      <c r="F231" s="17">
         <v>1</v>
       </c>
       <c r="G231" s="3">
         <v>0</v>
       </c>
       <c r="H231" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>723</v>
@@ -9379,10 +9388,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -9400,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="H232" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>723</v>
@@ -9408,10 +9417,10 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -9429,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>723</v>
@@ -9437,10 +9446,10 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -9458,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>723</v>
@@ -9466,10 +9475,10 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>700</v>
+        <v>147</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -9487,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I235" s="3" t="s">
         <v>723</v>
@@ -9495,10 +9504,10 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -9524,10 +9533,10 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -9553,10 +9562,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
-        <v>638</v>
+        <v>701</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>148</v>
+        <v>703</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -9574,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="H238" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I238" s="3" t="s">
         <v>723</v>
@@ -9582,10 +9591,10 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C239" s="2">
         <v>0</v>
@@ -9603,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="H239" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>723</v>
@@ -9611,10 +9620,10 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C240" s="2">
         <v>0</v>
@@ -9632,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>723</v>
@@ -9640,57 +9649,57 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0</v>
+      </c>
+      <c r="D241" s="2">
+        <v>0</v>
+      </c>
+      <c r="E241" s="17">
+        <v>1</v>
+      </c>
+      <c r="F241" s="19">
+        <v>1</v>
+      </c>
+      <c r="G241" s="3">
+        <v>0</v>
+      </c>
+      <c r="H241" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="B241" s="14" t="s">
+      <c r="B242" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C241" s="2">
-        <v>0</v>
-      </c>
-      <c r="D241" s="2">
-        <v>0</v>
-      </c>
-      <c r="E241" s="17">
-        <v>1</v>
-      </c>
-      <c r="F241" s="19">
-        <v>1</v>
-      </c>
-      <c r="G241" s="3">
-        <v>0</v>
-      </c>
-      <c r="H241" s="14" t="s">
+      <c r="C242" s="2">
+        <v>0</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0</v>
+      </c>
+      <c r="E242" s="17">
+        <v>1</v>
+      </c>
+      <c r="F242" s="19">
+        <v>1</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0</v>
+      </c>
+      <c r="H242" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C242" s="2">
-        <v>0</v>
-      </c>
-      <c r="D242" s="2">
-        <v>0</v>
-      </c>
-      <c r="E242" s="17">
-        <v>1</v>
-      </c>
-      <c r="F242" s="19">
-        <v>1</v>
-      </c>
-      <c r="G242" s="3">
-        <v>0</v>
-      </c>
-      <c r="H242" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>723</v>
@@ -9698,10 +9707,10 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -9719,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="H243" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I243" s="3" t="s">
         <v>723</v>
@@ -9727,10 +9736,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -9748,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>723</v>
@@ -9756,10 +9765,10 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -9777,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I245" s="3" t="s">
         <v>723</v>
@@ -9785,10 +9794,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -9806,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>723</v>
@@ -9814,10 +9823,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C247" s="2">
         <v>0</v>
@@ -9835,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>723</v>
@@ -9843,10 +9852,10 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C248" s="2">
         <v>0</v>
@@ -9864,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="15" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>723</v>
@@ -9872,59 +9881,88 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0</v>
+      </c>
+      <c r="E249" s="17">
+        <v>1</v>
+      </c>
+      <c r="F249" s="19">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>0</v>
+      </c>
+      <c r="H249" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B250" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C249" s="2">
-        <v>0</v>
-      </c>
-      <c r="D249" s="2">
-        <v>0</v>
-      </c>
-      <c r="E249" s="17">
-        <v>1</v>
-      </c>
-      <c r="F249" s="17">
-        <v>1</v>
-      </c>
-      <c r="G249" s="3">
-        <v>0</v>
-      </c>
-      <c r="H249" s="15" t="s">
+      <c r="C250" s="2">
+        <v>0</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0</v>
+      </c>
+      <c r="E250" s="17">
+        <v>1</v>
+      </c>
+      <c r="F250" s="17">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H250" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I249" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
+      <c r="I250" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B251" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C250" s="2">
-        <v>1</v>
-      </c>
-      <c r="D250" s="2">
-        <v>1</v>
-      </c>
-      <c r="E250" s="4">
-        <v>1</v>
-      </c>
-      <c r="F250" s="3">
-        <v>1</v>
-      </c>
-      <c r="G250" s="3">
-        <v>0</v>
-      </c>
-      <c r="H250" s="5" t="s">
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1</v>
+      </c>
+      <c r="E251" s="4">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0</v>
+      </c>
+      <c r="H251" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="I251" s="3" t="s">
         <v>724</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -1634,9 +1634,6 @@
     <t>crfs-t09a1-vaccine_injection</t>
   </si>
   <si>
-    <t>yg_infant_ctg</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -2220,6 +2217,9 @@
   </si>
   <si>
     <t>contact_start</t>
+  </si>
+  <si>
+    <t>who_age_ctg</t>
   </si>
 </sst>
 </file>
@@ -2670,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2714,7 +2714,7 @@
         <v>183</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2743,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O2" s="29"/>
     </row>
@@ -2773,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2802,7 +2802,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2831,16 +2831,16 @@
         <v>429</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>615</v>
-      </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -2857,19 +2857,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>552</v>
-      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2918,44 +2918,44 @@
         <v>495</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>731</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2976,15 +2976,15 @@
         <v>495</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -3002,18 +3002,18 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>539</v>
-      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -3060,19 +3060,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>541</v>
-      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -3089,19 +3089,19 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>543</v>
-      </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
@@ -3118,19 +3118,19 @@
         <v>1</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>545</v>
-      </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
@@ -3147,97 +3147,97 @@
         <v>1</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>547</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>652</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>654</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>315</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
         <v>163</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3324,7 +3324,7 @@
         <v>164</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3353,7 +3353,7 @@
         <v>430</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3382,7 +3382,7 @@
         <v>165</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3411,7 +3411,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>439</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3469,7 +3469,7 @@
         <v>166</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3498,7 +3498,7 @@
         <v>167</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3527,7 +3527,7 @@
         <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3556,7 +3556,7 @@
         <v>436</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3585,7 +3585,7 @@
         <v>170</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3614,7 +3614,7 @@
         <v>171</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3643,7 +3643,7 @@
         <v>172</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3651,7 +3651,7 @@
         <v>323</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>536</v>
+        <v>731</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
         <v>173</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3730,7 +3730,7 @@
         <v>174</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3759,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3788,7 +3788,7 @@
         <v>175</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3817,7 +3817,7 @@
         <v>176</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3846,7 +3846,7 @@
         <v>177</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3875,7 +3875,7 @@
         <v>178</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3904,7 +3904,7 @@
         <v>454</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3933,7 +3933,7 @@
         <v>179</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3962,7 +3962,7 @@
         <v>180</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3991,7 +3991,7 @@
         <v>181</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4020,7 +4020,7 @@
         <v>182</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4049,7 +4049,7 @@
         <v>455</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4078,7 +4078,7 @@
         <v>184</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4107,7 +4107,7 @@
         <v>185</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4136,7 +4136,7 @@
         <v>186</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4165,7 +4165,7 @@
         <v>187</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4194,7 +4194,7 @@
         <v>188</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
         <v>189</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4252,7 +4252,7 @@
         <v>190</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4281,7 +4281,7 @@
         <v>191</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4310,7 +4310,7 @@
         <v>192</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
         <v>193</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4368,44 +4368,44 @@
         <v>194</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>559</v>
-      </c>
       <c r="I59" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -4423,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4455,16 +4455,16 @@
         <v>195</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>721</v>
-      </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
@@ -4481,10 +4481,10 @@
         <v>1</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4513,7 +4513,7 @@
         <v>196</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4542,7 +4542,7 @@
         <v>197</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4571,36 +4571,36 @@
         <v>198</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>662</v>
-      </c>
       <c r="I66" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4629,16 +4629,16 @@
         <v>506</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>659</v>
-      </c>
       <c r="C68" s="2">
         <v>0</v>
       </c>
@@ -4655,10 +4655,10 @@
         <v>1</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4687,7 +4687,7 @@
         <v>199</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4716,7 +4716,7 @@
         <v>200</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4745,7 +4745,7 @@
         <v>433</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4774,7 +4774,7 @@
         <v>434</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4803,7 +4803,7 @@
         <v>444</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4832,36 +4832,36 @@
         <v>201</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>568</v>
-      </c>
       <c r="I75" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -4890,7 +4890,7 @@
         <v>204</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4919,7 +4919,7 @@
         <v>205</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4948,7 +4948,7 @@
         <v>206</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4977,7 +4977,7 @@
         <v>449</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5006,7 +5006,7 @@
         <v>451</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5033,15 +5033,15 @@
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>713</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>714</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>446</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5091,7 +5091,7 @@
         <v>498</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>503</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5149,16 +5149,16 @@
         <v>504</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>563</v>
-      </c>
       <c r="C86" s="2">
         <v>1</v>
       </c>
@@ -5175,68 +5175,68 @@
         <v>1</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>1</v>
-      </c>
-      <c r="E87" s="4">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>566</v>
-      </c>
       <c r="I87" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C88" s="2">
-        <v>0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>1</v>
-      </c>
-      <c r="E88" s="4">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>719</v>
-      </c>
       <c r="I88" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5265,7 +5265,7 @@
         <v>207</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5294,7 +5294,7 @@
         <v>208</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5323,7 +5323,7 @@
         <v>209</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
         <v>210</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5381,7 +5381,7 @@
         <v>211</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5410,7 +5410,7 @@
         <v>212</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5439,7 +5439,7 @@
         <v>213</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5468,7 +5468,7 @@
         <v>214</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -5497,7 +5497,7 @@
         <v>227</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -5526,7 +5526,7 @@
         <v>228</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -5555,7 +5555,7 @@
         <v>229</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
         <v>230</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>231</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5642,7 +5642,7 @@
         <v>232</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5671,7 +5671,7 @@
         <v>233</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5700,7 +5700,7 @@
         <v>234</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -5729,7 +5729,7 @@
         <v>235</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -5758,7 +5758,7 @@
         <v>236</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -5787,7 +5787,7 @@
         <v>237</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -5816,7 +5816,7 @@
         <v>238</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>239</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5874,7 +5874,7 @@
         <v>240</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5903,7 +5903,7 @@
         <v>241</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5932,7 +5932,7 @@
         <v>242</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5961,7 +5961,7 @@
         <v>243</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -5990,7 +5990,7 @@
         <v>244</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6019,7 +6019,7 @@
         <v>245</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6048,7 +6048,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>247</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6106,45 +6106,45 @@
         <v>276</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B119" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="C119" s="2">
-        <v>0</v>
-      </c>
-      <c r="D119" s="2">
-        <v>1</v>
-      </c>
-      <c r="E119" s="4">
-        <v>1</v>
-      </c>
-      <c r="F119" s="3">
-        <v>1</v>
-      </c>
-      <c r="G119" s="3">
-        <v>0</v>
-      </c>
-      <c r="H119" s="22" t="s">
-        <v>575</v>
-      </c>
       <c r="I119" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="B120" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="B120" s="21" t="s">
-        <v>572</v>
-      </c>
       <c r="C120" s="2">
         <v>0</v>
       </c>
@@ -6161,10 +6161,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6193,7 +6193,7 @@
         <v>215</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6222,7 +6222,7 @@
         <v>216</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -6251,7 +6251,7 @@
         <v>217</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -6280,7 +6280,7 @@
         <v>218</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -6309,7 +6309,7 @@
         <v>219</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -6338,7 +6338,7 @@
         <v>220</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -6367,7 +6367,7 @@
         <v>221</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -6396,7 +6396,7 @@
         <v>222</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -6425,7 +6425,7 @@
         <v>223</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6454,7 +6454,7 @@
         <v>224</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -6483,7 +6483,7 @@
         <v>225</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6512,7 +6512,7 @@
         <v>226</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -6541,7 +6541,7 @@
         <v>248</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -6570,7 +6570,7 @@
         <v>249</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -6599,7 +6599,7 @@
         <v>250</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -6628,7 +6628,7 @@
         <v>251</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -6657,7 +6657,7 @@
         <v>252</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -6686,7 +6686,7 @@
         <v>253</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -6715,7 +6715,7 @@
         <v>254</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -6744,7 +6744,7 @@
         <v>255</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -6773,7 +6773,7 @@
         <v>256</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -6802,7 +6802,7 @@
         <v>257</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -6831,7 +6831,7 @@
         <v>258</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -6860,7 +6860,7 @@
         <v>259</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -6889,7 +6889,7 @@
         <v>260</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6918,7 +6918,7 @@
         <v>261</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -6947,7 +6947,7 @@
         <v>262</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -6976,7 +6976,7 @@
         <v>263</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7005,7 +7005,7 @@
         <v>264</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7034,7 +7034,7 @@
         <v>265</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7063,7 +7063,7 @@
         <v>266</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7092,7 +7092,7 @@
         <v>267</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7121,7 +7121,7 @@
         <v>268</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7150,36 +7150,36 @@
         <v>269</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="17">
+        <v>1</v>
+      </c>
+      <c r="F155" s="19">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+      <c r="H155" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="B155" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="C155" s="2">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-      <c r="E155" s="17">
-        <v>1</v>
-      </c>
-      <c r="F155" s="19">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3">
-        <v>1</v>
-      </c>
-      <c r="H155" s="26" t="s">
-        <v>664</v>
-      </c>
       <c r="I155" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7208,12 +7208,12 @@
         <v>114</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B157" s="26" t="s">
         <v>123</v>
@@ -7237,15 +7237,15 @@
         <v>279</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -7263,15 +7263,15 @@
         <v>1</v>
       </c>
       <c r="H158" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>508</v>
@@ -7295,12 +7295,12 @@
         <v>509</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B160" s="26" t="s">
         <v>510</v>
@@ -7324,12 +7324,12 @@
         <v>511</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B161" s="25" t="s">
         <v>115</v>
@@ -7353,12 +7353,12 @@
         <v>270</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B162" s="28" t="s">
         <v>124</v>
@@ -7382,12 +7382,12 @@
         <v>280</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B163" s="28" t="s">
         <v>125</v>
@@ -7411,7 +7411,7 @@
         <v>281</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -7440,7 +7440,7 @@
         <v>533</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -7469,7 +7469,7 @@
         <v>271</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -7498,7 +7498,7 @@
         <v>272</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -7527,7 +7527,7 @@
         <v>532</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -7556,537 +7556,537 @@
         <v>273</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="17">
+        <v>1</v>
+      </c>
+      <c r="F169" s="19">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B169" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="17">
-        <v>1</v>
-      </c>
-      <c r="F169" s="19">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="14" t="s">
-        <v>666</v>
-      </c>
       <c r="I169" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B170" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="17">
+        <v>1</v>
+      </c>
+      <c r="F170" s="17">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="17">
-        <v>1</v>
-      </c>
-      <c r="F170" s="17">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3">
-        <v>0</v>
-      </c>
-      <c r="H170" s="15" t="s">
-        <v>578</v>
-      </c>
       <c r="I170" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B171" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="17">
+        <v>1</v>
+      </c>
+      <c r="F171" s="17">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="17">
-        <v>1</v>
-      </c>
-      <c r="F171" s="17">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>581</v>
-      </c>
       <c r="I171" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B172" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="17">
+        <v>1</v>
+      </c>
+      <c r="F172" s="17">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="17">
-        <v>1</v>
-      </c>
-      <c r="F172" s="17">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>584</v>
-      </c>
       <c r="I172" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B173" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="17">
+        <v>1</v>
+      </c>
+      <c r="F173" s="17">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="17">
-        <v>1</v>
-      </c>
-      <c r="F173" s="17">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>587</v>
-      </c>
       <c r="I173" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B174" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>1</v>
+      </c>
+      <c r="F174" s="17">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="17">
-        <v>1</v>
-      </c>
-      <c r="F174" s="17">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>590</v>
-      </c>
       <c r="I174" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B175" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="17">
+        <v>1</v>
+      </c>
+      <c r="F175" s="17">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="17">
-        <v>1</v>
-      </c>
-      <c r="F175" s="17">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="15" t="s">
-        <v>593</v>
-      </c>
       <c r="I175" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B176" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="17">
+        <v>1</v>
+      </c>
+      <c r="F176" s="17">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="17">
-        <v>1</v>
-      </c>
-      <c r="F176" s="17">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="15" t="s">
-        <v>674</v>
-      </c>
       <c r="I176" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B177" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <v>1</v>
+      </c>
+      <c r="F177" s="17">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="17">
-        <v>1</v>
-      </c>
-      <c r="F177" s="17">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>596</v>
-      </c>
       <c r="I177" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="17">
+        <v>1</v>
+      </c>
+      <c r="F178" s="17">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="17">
-        <v>1</v>
-      </c>
-      <c r="F178" s="17">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="15" t="s">
-        <v>599</v>
-      </c>
       <c r="I178" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B179" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="17">
+        <v>1</v>
+      </c>
+      <c r="F179" s="17">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="17">
-        <v>1</v>
-      </c>
-      <c r="F179" s="17">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="15" t="s">
-        <v>602</v>
-      </c>
       <c r="I179" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="17">
+        <v>1</v>
+      </c>
+      <c r="F180" s="17">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="B180" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="17">
-        <v>1</v>
-      </c>
-      <c r="F180" s="17">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="15" t="s">
-        <v>669</v>
-      </c>
       <c r="I180" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B181" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>1</v>
+      </c>
+      <c r="F181" s="17">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="17">
-        <v>1</v>
-      </c>
-      <c r="F181" s="17">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>605</v>
-      </c>
       <c r="I181" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B182" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="17">
-        <v>1</v>
-      </c>
-      <c r="F182" s="17">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>607</v>
-      </c>
       <c r="I182" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B183" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="17">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>1</v>
-      </c>
-      <c r="F183" s="17">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="15" t="s">
-        <v>610</v>
-      </c>
       <c r="I183" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="17">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>1</v>
-      </c>
-      <c r="F184" s="17">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="15" t="s">
-        <v>613</v>
-      </c>
       <c r="I184" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>1</v>
+      </c>
+      <c r="F185" s="19">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="17">
-        <v>1</v>
-      </c>
-      <c r="F185" s="19">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="14" t="s">
-        <v>677</v>
-      </c>
       <c r="I185" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="B186" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B186" s="14" t="s">
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>1</v>
+      </c>
+      <c r="F186" s="19">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="17">
-        <v>1</v>
-      </c>
-      <c r="F186" s="19">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="14" t="s">
-        <v>680</v>
-      </c>
       <c r="I186" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -8104,18 +8104,18 @@
         <v>0</v>
       </c>
       <c r="H187" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -8133,97 +8133,97 @@
         <v>0</v>
       </c>
       <c r="H188" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="B189" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="B189" s="14" t="s">
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+      <c r="E189" s="17">
+        <v>1</v>
+      </c>
+      <c r="F189" s="19">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="C189" s="2">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="17">
-        <v>1</v>
-      </c>
-      <c r="F189" s="19">
-        <v>1</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="14" t="s">
-        <v>689</v>
-      </c>
       <c r="I189" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
+        <v>1</v>
+      </c>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="B190" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="17">
-        <v>1</v>
-      </c>
-      <c r="F190" s="19">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="14" t="s">
-        <v>691</v>
-      </c>
       <c r="I190" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="B191" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="B191" s="14" t="s">
+      <c r="C191" s="2">
+        <v>0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+      <c r="E191" s="17">
+        <v>1</v>
+      </c>
+      <c r="F191" s="19">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+      <c r="H191" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C191" s="2">
-        <v>0</v>
-      </c>
-      <c r="D191" s="2">
-        <v>0</v>
-      </c>
-      <c r="E191" s="17">
-        <v>1</v>
-      </c>
-      <c r="F191" s="19">
-        <v>1</v>
-      </c>
-      <c r="G191" s="3">
-        <v>0</v>
-      </c>
-      <c r="H191" s="14" t="s">
-        <v>695</v>
-      </c>
       <c r="I191" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -8231,7 +8231,7 @@
         <v>427</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>274</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8260,7 +8260,7 @@
         <v>428</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -8281,7 +8281,7 @@
         <v>275</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8310,7 +8310,7 @@
         <v>459</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8339,7 +8339,7 @@
         <v>460</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8368,7 +8368,7 @@
         <v>461</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8397,7 +8397,7 @@
         <v>462</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -8426,7 +8426,7 @@
         <v>463</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -8455,7 +8455,7 @@
         <v>464</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -8484,7 +8484,7 @@
         <v>465</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -8513,7 +8513,7 @@
         <v>466</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -8542,7 +8542,7 @@
         <v>467</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -8571,7 +8571,7 @@
         <v>468</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -8600,7 +8600,7 @@
         <v>469</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -8629,7 +8629,7 @@
         <v>470</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -8658,7 +8658,7 @@
         <v>471</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -8687,7 +8687,7 @@
         <v>472</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -8716,7 +8716,7 @@
         <v>473</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -8745,7 +8745,7 @@
         <v>474</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -8774,7 +8774,7 @@
         <v>475</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -8803,12 +8803,12 @@
         <v>476</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B212" s="27" t="s">
         <v>121</v>
@@ -8832,12 +8832,12 @@
         <v>277</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B213" s="27" t="s">
         <v>122</v>
@@ -8861,12 +8861,12 @@
         <v>278</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B214" s="25" t="s">
         <v>126</v>
@@ -8890,12 +8890,12 @@
         <v>282</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B215" s="25" t="s">
         <v>127</v>
@@ -8919,12 +8919,12 @@
         <v>283</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B216" s="25" t="s">
         <v>128</v>
@@ -8948,12 +8948,12 @@
         <v>284</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B217" s="25" t="s">
         <v>129</v>
@@ -8977,12 +8977,12 @@
         <v>285</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B218" s="25" t="s">
         <v>130</v>
@@ -9006,12 +9006,12 @@
         <v>286</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B219" s="25" t="s">
         <v>131</v>
@@ -9035,12 +9035,12 @@
         <v>287</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B220" s="25" t="s">
         <v>132</v>
@@ -9064,12 +9064,12 @@
         <v>288</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B221" s="25" t="s">
         <v>133</v>
@@ -9093,12 +9093,12 @@
         <v>289</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B222" s="25" t="s">
         <v>134</v>
@@ -9122,12 +9122,12 @@
         <v>290</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B223" s="25" t="s">
         <v>135</v>
@@ -9151,12 +9151,12 @@
         <v>291</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B224" s="25" t="s">
         <v>136</v>
@@ -9180,12 +9180,12 @@
         <v>292</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B225" s="25" t="s">
         <v>137</v>
@@ -9209,12 +9209,12 @@
         <v>293</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B226" s="25" t="s">
         <v>138</v>
@@ -9238,12 +9238,12 @@
         <v>294</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B227" s="25" t="s">
         <v>139</v>
@@ -9267,12 +9267,12 @@
         <v>295</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B228" s="25" t="s">
         <v>140</v>
@@ -9296,12 +9296,12 @@
         <v>296</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B229" s="25" t="s">
         <v>141</v>
@@ -9325,12 +9325,12 @@
         <v>297</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>142</v>
@@ -9354,12 +9354,12 @@
         <v>298</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B231" s="14" t="s">
         <v>143</v>
@@ -9383,12 +9383,12 @@
         <v>299</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>144</v>
@@ -9412,12 +9412,12 @@
         <v>300</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B233" s="14" t="s">
         <v>145</v>
@@ -9441,12 +9441,12 @@
         <v>301</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>146</v>
@@ -9470,12 +9470,12 @@
         <v>302</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B235" s="14" t="s">
         <v>147</v>
@@ -9499,15 +9499,15 @@
         <v>303</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -9528,15 +9528,15 @@
         <v>304</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -9557,15 +9557,15 @@
         <v>304</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -9586,12 +9586,12 @@
         <v>304</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B239" s="14" t="s">
         <v>148</v>
@@ -9615,12 +9615,12 @@
         <v>305</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B240" s="14" t="s">
         <v>149</v>
@@ -9644,12 +9644,12 @@
         <v>306</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>150</v>
@@ -9673,12 +9673,12 @@
         <v>307</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B242" s="14" t="s">
         <v>151</v>
@@ -9702,12 +9702,12 @@
         <v>308</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B243" s="15" t="s">
         <v>152</v>
@@ -9731,12 +9731,12 @@
         <v>309</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B244" s="15" t="s">
         <v>153</v>
@@ -9760,12 +9760,12 @@
         <v>310</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B245" s="15" t="s">
         <v>154</v>
@@ -9789,12 +9789,12 @@
         <v>311</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B246" s="15" t="s">
         <v>155</v>
@@ -9818,12 +9818,12 @@
         <v>312</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B247" s="15" t="s">
         <v>156</v>
@@ -9847,12 +9847,12 @@
         <v>313</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B248" s="15" t="s">
         <v>157</v>
@@ -9876,12 +9876,12 @@
         <v>314</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B249" s="15" t="s">
         <v>158</v>
@@ -9905,12 +9905,12 @@
         <v>203</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B250" s="15" t="s">
         <v>159</v>
@@ -9934,36 +9934,36 @@
         <v>202</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="C251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1</v>
+      </c>
+      <c r="E251" s="4">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0</v>
+      </c>
+      <c r="H251" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C251" s="2">
-        <v>1</v>
-      </c>
-      <c r="D251" s="2">
-        <v>1</v>
-      </c>
-      <c r="E251" s="4">
-        <v>1</v>
-      </c>
-      <c r="F251" s="3">
-        <v>1</v>
-      </c>
-      <c r="G251" s="3">
-        <v>0</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>555</v>
-      </c>
       <c r="I251" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -2670,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4959,7 +4959,7 @@
         <v>449</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -5160,7 +5160,7 @@
         <v>562</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="735">
   <si>
     <t>old</t>
   </si>
@@ -2220,6 +2220,15 @@
   </si>
   <si>
     <t>who_age_ctg</t>
+  </si>
+  <si>
+    <t>crfs-t09a1-e4_1</t>
+  </si>
+  <si>
+    <t>pox_used_cg</t>
+  </si>
+  <si>
+    <t>e4_1</t>
   </si>
 </sst>
 </file>
@@ -2668,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8924,10 +8933,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>616</v>
+        <v>732</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>128</v>
+        <v>733</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8945,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>284</v>
+        <v>734</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>722</v>
@@ -8953,10 +8962,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8974,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="H217" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>722</v>
@@ -8982,10 +8991,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -9000,10 +9009,10 @@
         <v>1</v>
       </c>
       <c r="G218" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>722</v>
@@ -9011,10 +9020,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -9032,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H219" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>722</v>
@@ -9040,10 +9049,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -9061,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I220" s="3" t="s">
         <v>722</v>
@@ -9069,10 +9078,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -9090,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>722</v>
@@ -9098,10 +9107,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -9119,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>722</v>
@@ -9127,10 +9136,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -9148,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I223" s="3" t="s">
         <v>722</v>
@@ -9156,10 +9165,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -9177,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="H224" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I224" s="3" t="s">
         <v>722</v>
@@ -9185,10 +9194,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -9206,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="H225" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>722</v>
@@ -9214,10 +9223,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
@@ -9235,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I226" s="3" t="s">
         <v>722</v>
@@ -9243,10 +9252,10 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C227" s="2">
         <v>0</v>
@@ -9264,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="H227" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>722</v>
@@ -9272,10 +9281,10 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -9293,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="H228" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I228" s="3" t="s">
         <v>722</v>
@@ -9301,57 +9310,57 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="B229" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0</v>
+      </c>
+      <c r="E229" s="17">
+        <v>1</v>
+      </c>
+      <c r="F229" s="19">
+        <v>1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0</v>
+      </c>
+      <c r="H229" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="B229" s="25" t="s">
+      <c r="B230" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C229" s="2">
-        <v>0</v>
-      </c>
-      <c r="D229" s="2">
-        <v>0</v>
-      </c>
-      <c r="E229" s="17">
-        <v>1</v>
-      </c>
-      <c r="F229" s="19">
-        <v>1</v>
-      </c>
-      <c r="G229" s="3">
-        <v>0</v>
-      </c>
-      <c r="H229" s="25" t="s">
+      <c r="C230" s="2">
+        <v>0</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0</v>
+      </c>
+      <c r="E230" s="17">
+        <v>1</v>
+      </c>
+      <c r="F230" s="19">
+        <v>1</v>
+      </c>
+      <c r="G230" s="3">
+        <v>0</v>
+      </c>
+      <c r="H230" s="25" t="s">
         <v>297</v>
-      </c>
-      <c r="I229" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="B230" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C230" s="2">
-        <v>0</v>
-      </c>
-      <c r="D230" s="2">
-        <v>0</v>
-      </c>
-      <c r="E230" s="17">
-        <v>1</v>
-      </c>
-      <c r="F230" s="19">
-        <v>1</v>
-      </c>
-      <c r="G230" s="3">
-        <v>0</v>
-      </c>
-      <c r="H230" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>722</v>
@@ -9359,10 +9368,10 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -9373,14 +9382,14 @@
       <c r="E231" s="17">
         <v>1</v>
       </c>
-      <c r="F231" s="17">
+      <c r="F231" s="19">
         <v>1</v>
       </c>
       <c r="G231" s="3">
         <v>0</v>
       </c>
       <c r="H231" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>722</v>
@@ -9388,10 +9397,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -9402,14 +9411,14 @@
       <c r="E232" s="17">
         <v>1</v>
       </c>
-      <c r="F232" s="19">
+      <c r="F232" s="17">
         <v>1</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
       </c>
       <c r="H232" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>722</v>
@@ -9417,10 +9426,10 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -9438,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="H233" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I233" s="3" t="s">
         <v>722</v>
@@ -9446,10 +9455,10 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -9467,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H234" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I234" s="3" t="s">
         <v>722</v>
@@ -9475,10 +9484,10 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -9496,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="H235" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I235" s="3" t="s">
         <v>722</v>
@@ -9504,10 +9513,10 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>699</v>
+        <v>147</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -9525,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="H236" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>722</v>
@@ -9533,10 +9542,10 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -9562,10 +9571,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -9591,10 +9600,10 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
-        <v>637</v>
+        <v>700</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>148</v>
+        <v>702</v>
       </c>
       <c r="C239" s="2">
         <v>0</v>
@@ -9612,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H239" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>722</v>
@@ -9620,10 +9629,10 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C240" s="2">
         <v>0</v>
@@ -9641,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>722</v>
@@ -9649,10 +9658,10 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C241" s="2">
         <v>0</v>
@@ -9670,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="H241" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I241" s="3" t="s">
         <v>722</v>
@@ -9678,57 +9687,57 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0</v>
+      </c>
+      <c r="E242" s="17">
+        <v>1</v>
+      </c>
+      <c r="F242" s="19">
+        <v>1</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0</v>
+      </c>
+      <c r="H242" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B242" s="14" t="s">
+      <c r="B243" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C242" s="2">
-        <v>0</v>
-      </c>
-      <c r="D242" s="2">
-        <v>0</v>
-      </c>
-      <c r="E242" s="17">
-        <v>1</v>
-      </c>
-      <c r="F242" s="19">
-        <v>1</v>
-      </c>
-      <c r="G242" s="3">
-        <v>0</v>
-      </c>
-      <c r="H242" s="14" t="s">
+      <c r="C243" s="2">
+        <v>0</v>
+      </c>
+      <c r="D243" s="2">
+        <v>0</v>
+      </c>
+      <c r="E243" s="17">
+        <v>1</v>
+      </c>
+      <c r="F243" s="19">
+        <v>1</v>
+      </c>
+      <c r="G243" s="3">
+        <v>0</v>
+      </c>
+      <c r="H243" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C243" s="2">
-        <v>0</v>
-      </c>
-      <c r="D243" s="2">
-        <v>0</v>
-      </c>
-      <c r="E243" s="17">
-        <v>1</v>
-      </c>
-      <c r="F243" s="19">
-        <v>1</v>
-      </c>
-      <c r="G243" s="3">
-        <v>0</v>
-      </c>
-      <c r="H243" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="I243" s="3" t="s">
         <v>722</v>
@@ -9736,10 +9745,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -9757,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I244" s="3" t="s">
         <v>722</v>
@@ -9765,10 +9774,10 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -9786,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="H245" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I245" s="3" t="s">
         <v>722</v>
@@ -9794,10 +9803,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -9815,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>722</v>
@@ -9823,10 +9832,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C247" s="2">
         <v>0</v>
@@ -9844,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="H247" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>722</v>
@@ -9852,10 +9861,10 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C248" s="2">
         <v>0</v>
@@ -9873,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="H248" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>722</v>
@@ -9881,10 +9890,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C249" s="2">
         <v>0</v>
@@ -9902,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H249" s="15" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>722</v>
@@ -9910,59 +9919,88 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="B250" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0</v>
+      </c>
+      <c r="E250" s="17">
+        <v>1</v>
+      </c>
+      <c r="F250" s="19">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H250" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B251" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C250" s="2">
-        <v>0</v>
-      </c>
-      <c r="D250" s="2">
-        <v>0</v>
-      </c>
-      <c r="E250" s="17">
-        <v>1</v>
-      </c>
-      <c r="F250" s="17">
-        <v>1</v>
-      </c>
-      <c r="G250" s="3">
-        <v>0</v>
-      </c>
-      <c r="H250" s="15" t="s">
+      <c r="C251" s="2">
+        <v>0</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0</v>
+      </c>
+      <c r="E251" s="17">
+        <v>1</v>
+      </c>
+      <c r="F251" s="17">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0</v>
+      </c>
+      <c r="H251" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I250" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
+      <c r="I251" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B252" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C251" s="2">
-        <v>1</v>
-      </c>
-      <c r="D251" s="2">
-        <v>1</v>
-      </c>
-      <c r="E251" s="4">
-        <v>1</v>
-      </c>
-      <c r="F251" s="3">
-        <v>1</v>
-      </c>
-      <c r="G251" s="3">
-        <v>0</v>
-      </c>
-      <c r="H251" s="5" t="s">
+      <c r="C252" s="2">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2">
+        <v>1</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>1</v>
+      </c>
+      <c r="G252" s="3">
+        <v>0</v>
+      </c>
+      <c r="H252" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="I251" s="3" t="s">
+      <c r="I252" s="3" t="s">
         <v>723</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="737">
   <si>
     <t>old</t>
   </si>
@@ -2229,6 +2229,12 @@
   </si>
   <si>
     <t>e4_1</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -2677,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O252"/>
+  <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253:XFD253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10004,6 +10010,32 @@
         <v>723</v>
       </c>
     </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1</v>
+      </c>
+      <c r="E253" s="2">
+        <v>1</v>
+      </c>
+      <c r="F253" s="2">
+        <v>1</v>
+      </c>
+      <c r="G253" s="2">
+        <v>1</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253:XFD253"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5168,10 +5168,10 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="9" t="s">
         <v>562</v>
       </c>
       <c r="C86" s="2">
@@ -5189,7 +5189,7 @@
       <c r="G86" s="3">
         <v>1</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="H86" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -5197,10 +5197,10 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="9" t="s">
         <v>564</v>
       </c>
       <c r="C87" s="2">
@@ -5218,7 +5218,7 @@
       <c r="G87" s="3">
         <v>0</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="H87" s="9" t="s">
         <v>565</v>
       </c>
       <c r="I87" s="3" t="s">
@@ -5226,10 +5226,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="9" t="s">
         <v>717</v>
       </c>
       <c r="C88" s="2">
@@ -5247,7 +5247,7 @@
       <c r="G88" s="3">
         <v>0</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="9" t="s">
         <v>718</v>
       </c>
       <c r="I88" s="3" t="s">

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -2407,7 +2407,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2685,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:XFD155"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M240" sqref="M240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10037,6 +10048,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:G253">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/inst/extdata/main_dict_tanzania.xlsx
+++ b/inst/extdata/main_dict_tanzania.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2192,24 +2192,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>col_integer()</t>
-  </si>
-  <si>
-    <t>col_character()</t>
-  </si>
-  <si>
-    <t>col_date()</t>
-  </si>
-  <si>
-    <t>col_datetime()</t>
-  </si>
-  <si>
-    <t>col_time()</t>
-  </si>
-  <si>
-    <t>col_double()</t>
-  </si>
-  <si>
     <t>crfs-t02b-contact_start</t>
   </si>
   <si>
@@ -2235,6 +2217,24 @@
   </si>
   <si>
     <t>form_version</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>nominal</t>
   </si>
 </sst>
 </file>
@@ -2696,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M240" sqref="M240"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2769,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>724</v>
+        <v>7</v>
       </c>
       <c r="O2" s="29"/>
     </row>
@@ -2799,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>429</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2886,7 +2886,7 @@
         <v>613</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
         <v>550</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2944,15 +2944,15 @@
         <v>495</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3002,7 +3002,7 @@
         <v>495</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3031,7 +3031,7 @@
         <v>536</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3060,7 +3060,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -3089,7 +3089,7 @@
         <v>537</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3118,7 +3118,7 @@
         <v>539</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -3147,7 +3147,7 @@
         <v>541</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3176,7 +3176,7 @@
         <v>543</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3205,7 +3205,7 @@
         <v>546</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
         <v>651</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>653</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3292,7 +3292,7 @@
         <v>315</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -3321,7 +3321,7 @@
         <v>163</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
         <v>164</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>724</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3379,7 +3379,7 @@
         <v>430</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>724</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -3408,7 +3408,7 @@
         <v>165</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>724</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>724</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -3466,7 +3466,7 @@
         <v>439</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3495,7 +3495,7 @@
         <v>166</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3524,7 +3524,7 @@
         <v>167</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -3553,7 +3553,7 @@
         <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -3582,7 +3582,7 @@
         <v>436</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>170</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3640,7 +3640,7 @@
         <v>171</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>172</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -3677,7 +3677,7 @@
         <v>323</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
         <v>173</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -3756,7 +3756,7 @@
         <v>174</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
         <v>8</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3814,7 +3814,7 @@
         <v>175</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -3843,7 +3843,7 @@
         <v>176</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -3872,7 +3872,7 @@
         <v>177</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -3901,7 +3901,7 @@
         <v>178</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -3930,7 +3930,7 @@
         <v>454</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3959,7 +3959,7 @@
         <v>179</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
         <v>180</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4017,7 +4017,7 @@
         <v>181</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4046,7 +4046,7 @@
         <v>182</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4075,7 +4075,7 @@
         <v>455</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4104,7 +4104,7 @@
         <v>184</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -4133,7 +4133,7 @@
         <v>185</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -4162,7 +4162,7 @@
         <v>186</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -4191,7 +4191,7 @@
         <v>187</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -4220,7 +4220,7 @@
         <v>188</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>189</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -4278,7 +4278,7 @@
         <v>190</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -4307,7 +4307,7 @@
         <v>191</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -4336,7 +4336,7 @@
         <v>192</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -4365,7 +4365,7 @@
         <v>193</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
         <v>194</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4423,7 +4423,7 @@
         <v>558</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
         <v>559</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
         <v>195</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -4510,7 +4510,7 @@
         <v>720</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -4539,7 +4539,7 @@
         <v>196</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -4568,7 +4568,7 @@
         <v>197</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -4597,7 +4597,7 @@
         <v>198</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -4626,7 +4626,7 @@
         <v>661</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -4655,7 +4655,7 @@
         <v>506</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
         <v>656</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -4713,7 +4713,7 @@
         <v>199</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -4742,7 +4742,7 @@
         <v>200</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -4771,7 +4771,7 @@
         <v>433</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -4800,7 +4800,7 @@
         <v>434</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -4829,7 +4829,7 @@
         <v>444</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -4858,7 +4858,7 @@
         <v>201</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -4887,7 +4887,7 @@
         <v>567</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -4916,7 +4916,7 @@
         <v>204</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4945,7 +4945,7 @@
         <v>205</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4974,7 +4974,7 @@
         <v>206</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -5003,7 +5003,7 @@
         <v>449</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
         <v>451</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>446</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5117,7 +5117,7 @@
         <v>498</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5146,7 +5146,7 @@
         <v>503</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5175,7 +5175,7 @@
         <v>504</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5204,7 +5204,7 @@
         <v>562</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5233,7 +5233,7 @@
         <v>565</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5262,7 +5262,7 @@
         <v>718</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5291,7 +5291,7 @@
         <v>207</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5320,7 +5320,7 @@
         <v>208</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5349,7 +5349,7 @@
         <v>209</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5378,7 +5378,7 @@
         <v>210</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5407,7 +5407,7 @@
         <v>211</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5436,7 +5436,7 @@
         <v>212</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
         <v>213</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5494,7 +5494,7 @@
         <v>214</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -5523,7 +5523,7 @@
         <v>227</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -5552,7 +5552,7 @@
         <v>228</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -5581,7 +5581,7 @@
         <v>229</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -5610,7 +5610,7 @@
         <v>230</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -5639,7 +5639,7 @@
         <v>231</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -5668,7 +5668,7 @@
         <v>232</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -5697,7 +5697,7 @@
         <v>233</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -5726,7 +5726,7 @@
         <v>234</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -5755,7 +5755,7 @@
         <v>235</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -5784,7 +5784,7 @@
         <v>236</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>237</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -5842,7 +5842,7 @@
         <v>238</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -5871,7 +5871,7 @@
         <v>239</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -5900,7 +5900,7 @@
         <v>240</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -5929,7 +5929,7 @@
         <v>241</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -5958,7 +5958,7 @@
         <v>242</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -5987,7 +5987,7 @@
         <v>243</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6016,7 +6016,7 @@
         <v>244</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6045,7 +6045,7 @@
         <v>245</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6074,7 +6074,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6103,7 +6103,7 @@
         <v>247</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6132,7 +6132,7 @@
         <v>276</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6161,7 +6161,7 @@
         <v>574</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6190,7 +6190,7 @@
         <v>569</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6219,7 +6219,7 @@
         <v>215</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6248,7 +6248,7 @@
         <v>216</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
         <v>217</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -6306,7 +6306,7 @@
         <v>218</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -6335,7 +6335,7 @@
         <v>219</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -6364,7 +6364,7 @@
         <v>220</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -6393,7 +6393,7 @@
         <v>221</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -6422,7 +6422,7 @@
         <v>222</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -6451,7 +6451,7 @@
         <v>223</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>224</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -6509,7 +6509,7 @@
         <v>225</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6538,7 +6538,7 @@
         <v>226</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -6567,7 +6567,7 @@
         <v>248</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -6596,7 +6596,7 @@
         <v>249</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>250</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -6654,7 +6654,7 @@
         <v>251</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -6683,7 +6683,7 @@
         <v>252</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -6712,7 +6712,7 @@
         <v>253</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -6741,7 +6741,7 @@
         <v>254</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -6770,7 +6770,7 @@
         <v>255</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -6799,7 +6799,7 @@
         <v>256</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -6828,7 +6828,7 @@
         <v>257</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -6857,7 +6857,7 @@
         <v>258</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -6886,7 +6886,7 @@
         <v>259</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -6915,7 +6915,7 @@
         <v>260</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -6944,7 +6944,7 @@
         <v>261</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -6973,7 +6973,7 @@
         <v>262</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7002,7 +7002,7 @@
         <v>263</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
         <v>264</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7060,7 +7060,7 @@
         <v>265</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7089,7 +7089,7 @@
         <v>266</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7118,7 +7118,7 @@
         <v>267</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7147,7 +7147,7 @@
         <v>268</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7176,7 +7176,7 @@
         <v>269</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7205,7 +7205,7 @@
         <v>663</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7234,7 +7234,7 @@
         <v>114</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7263,7 +7263,7 @@
         <v>279</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7292,7 +7292,7 @@
         <v>697</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7321,7 +7321,7 @@
         <v>509</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -7350,7 +7350,7 @@
         <v>511</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7379,7 +7379,7 @@
         <v>270</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -7408,7 +7408,7 @@
         <v>280</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -7437,7 +7437,7 @@
         <v>281</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
         <v>533</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -7495,7 +7495,7 @@
         <v>271</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -7524,7 +7524,7 @@
         <v>272</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -7553,7 +7553,7 @@
         <v>532</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -7582,7 +7582,7 @@
         <v>273</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -7611,7 +7611,7 @@
         <v>665</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -7640,7 +7640,7 @@
         <v>577</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -7669,7 +7669,7 @@
         <v>580</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -7698,7 +7698,7 @@
         <v>583</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -7727,7 +7727,7 @@
         <v>586</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -7756,7 +7756,7 @@
         <v>589</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -7785,7 +7785,7 @@
         <v>592</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -7814,7 +7814,7 @@
         <v>673</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -7843,7 +7843,7 @@
         <v>595</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -7872,7 +7872,7 @@
         <v>598</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -7901,7 +7901,7 @@
         <v>601</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -7930,7 +7930,7 @@
         <v>668</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7959,7 +7959,7 @@
         <v>604</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -7988,7 +7988,7 @@
         <v>606</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -8017,7 +8017,7 @@
         <v>609</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -8046,7 +8046,7 @@
         <v>612</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -8075,7 +8075,7 @@
         <v>676</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -8104,7 +8104,7 @@
         <v>679</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -8133,7 +8133,7 @@
         <v>684</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -8162,7 +8162,7 @@
         <v>685</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -8191,7 +8191,7 @@
         <v>688</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -8220,7 +8220,7 @@
         <v>690</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -8249,7 +8249,7 @@
         <v>694</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -8278,7 +8278,7 @@
         <v>274</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8307,7 +8307,7 @@
         <v>275</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8336,7 +8336,7 @@
         <v>459</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8365,7 +8365,7 @@
         <v>460</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8394,7 +8394,7 @@
         <v>461</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8423,7 +8423,7 @@
         <v>462</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -8452,7 +8452,7 @@
         <v>463</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -8481,7 +8481,7 @@
         <v>464</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -8510,7 +8510,7 @@
         <v>465</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -8539,7 +8539,7 @@
         <v>466</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -8568,7 +8568,7 @@
         <v>467</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -8597,7 +8597,7 @@
         <v>468</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -8626,7 +8626,7 @@
         <v>469</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -8655,7 +8655,7 @@
         <v>470</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -8684,7 +8684,7 @@
         <v>471</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -8713,7 +8713,7 @@
         <v>472</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -8742,7 +8742,7 @@
         <v>473</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -8771,7 +8771,7 @@
         <v>474</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -8800,7 +8800,7 @@
         <v>475</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>476</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -8858,7 +8858,7 @@
         <v>277</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -8887,7 +8887,7 @@
         <v>278</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -8916,7 +8916,7 @@
         <v>282</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -8945,15 +8945,15 @@
         <v>283</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -8971,10 +8971,10 @@
         <v>1</v>
       </c>
       <c r="H216" s="25" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9003,7 +9003,7 @@
         <v>284</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9032,7 +9032,7 @@
         <v>285</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9061,7 +9061,7 @@
         <v>286</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9090,7 +9090,7 @@
         <v>287</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9119,7 +9119,7 @@
         <v>288</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9148,7 +9148,7 @@
         <v>289</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9177,7 +9177,7 @@
         <v>290</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9206,7 +9206,7 @@
         <v>291</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -9235,7 +9235,7 @@
         <v>292</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -9264,7 +9264,7 @@
         <v>293</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -9293,7 +9293,7 @@
         <v>294</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -9322,7 +9322,7 @@
         <v>295</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -9351,7 +9351,7 @@
         <v>296</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -9380,7 +9380,7 @@
         <v>297</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -9409,7 +9409,7 @@
         <v>298</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -9438,7 +9438,7 @@
         <v>299</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -9467,7 +9467,7 @@
         <v>300</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -9496,7 +9496,7 @@
         <v>301</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -9525,7 +9525,7 @@
         <v>302</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -9554,7 +9554,7 @@
         <v>303</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -9583,7 +9583,7 @@
         <v>304</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -9612,7 +9612,7 @@
         <v>304</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -9641,7 +9641,7 @@
         <v>304</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -9670,7 +9670,7 @@
         <v>305</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -9699,7 +9699,7 @@
         <v>306</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -9728,7 +9728,7 @@
         <v>307</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -9757,7 +9757,7 @@
         <v>308</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -9786,7 +9786,7 @@
         <v>309</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -9815,7 +9815,7 @@
         <v>310</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -9844,7 +9844,7 @@
         <v>311</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -9873,7 +9873,7 @@
         <v>312</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -9902,7 +9902,7 @@
         <v>313</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9931,7 +9931,7 @@
         <v>314</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -9960,7 +9960,7 @@
         <v>203</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9989,7 +9989,7 @@
         <v>202</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10018,15 +10018,15 @@
         <v>554</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C253" s="2">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>1</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
